--- a/notes/Grad.schools.xlsx
+++ b/notes/Grad.schools.xlsx
@@ -1,17 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\transit_credit-access\notes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E90BFBD-15EB-4580-A25E-7B6E8636E2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="27375" yWindow="3090" windowWidth="21795" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Application Details" sheetId="1" r:id="rId1"/>
+    <sheet name="Program Descriptions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="49">
   <si>
     <t>School</t>
   </si>
@@ -146,27 +169,49 @@
   </si>
   <si>
     <t>Emory</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application opens </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open now </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,39 +219,48 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -396,29 +450,272 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45184</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B22" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B5" r:id="rId14" xr:uid="{5F417FAE-548E-43C2-A72F-EFF6AAC0C847}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;11&amp;K000000PERSONAL/NONWORK // EXTERNAL&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32321928-47FD-4F9C-8247-57BCB1104CE8}">
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="14.38"/>
-    <col customWidth="1" min="3" max="3" width="11.13"/>
-    <col customWidth="1" min="4" max="5" width="19.38"/>
-    <col customWidth="1" min="6" max="6" width="16.5"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -464,7 +761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -475,7 +772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -486,7 +783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -494,7 +791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -502,7 +799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -510,7 +807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -518,7 +815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -526,7 +823,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -534,7 +831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -545,7 +842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -553,7 +850,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -561,7 +858,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -572,7 +869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -580,7 +877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -588,7 +885,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -596,7 +893,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -604,7 +901,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -612,7 +909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -620,22 +917,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -643,7 +940,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -651,7 +948,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -659,12 +956,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
@@ -674,27 +971,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="B5"/>
-    <hyperlink r:id="rId5" ref="B6"/>
-    <hyperlink r:id="rId6" ref="B7"/>
-    <hyperlink r:id="rId7" ref="B8"/>
-    <hyperlink r:id="rId8" ref="B9"/>
-    <hyperlink r:id="rId9" ref="B10"/>
-    <hyperlink r:id="rId10" ref="B11"/>
-    <hyperlink r:id="rId11" ref="B12"/>
-    <hyperlink r:id="rId12" ref="B13"/>
-    <hyperlink r:id="rId13" ref="B14"/>
-    <hyperlink r:id="rId14" ref="B15"/>
-    <hyperlink r:id="rId15" ref="B16"/>
-    <hyperlink r:id="rId16" ref="B17"/>
-    <hyperlink r:id="rId17" ref="B18"/>
-    <hyperlink r:id="rId18" ref="B19"/>
-    <hyperlink r:id="rId19" ref="B20"/>
-    <hyperlink r:id="rId20" ref="B28"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{BD48AD7A-BD94-4843-B8E3-DFC4B9EB6A18}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{7C891151-2F57-4C09-B8FE-4CA6C39C8668}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{7B69E549-3A29-48AC-9221-8CA50D5620E1}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{E7563E4F-EC22-4B6E-A3D1-8C1E0D25D3BC}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{BE2BFD3B-2416-45EF-987A-830C13AE7EC2}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{0374DB9C-5E0F-4C0F-A92D-5CCE5F959F74}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{C97AEA66-1554-4E15-BCE7-152331F3CEAB}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{9714392E-A77E-4090-BD90-8D6F59DC6DCB}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{1A3FBD4B-A63C-4182-B06B-E63C06A3A864}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{B2003F9C-7730-4B2B-8F2E-F1782530622F}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{1CFD97B9-6680-4D4D-9F29-5B1FD70152AF}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{7BE88491-B842-4F13-B6DA-E0C9E43FB9EC}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00822365-5DA5-48DB-942C-7219B77C187C}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{0D48F7A3-9379-4A22-914F-EA5E8B30B69A}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{8A5EEDB4-6E00-4924-87F2-3CFABB83E86C}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{54CB248F-CF97-4126-94B1-7EBBD2CBB135}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{1866AA8B-A97D-45FE-8112-5EC14415CCA1}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{3344DD23-C262-4859-83F8-4EA68B565F05}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{88BCA437-3A28-4FA2-A0A6-9B49FF4BA5B7}"/>
+    <hyperlink ref="B28" r:id="rId20" xr:uid="{C3199FF4-E780-492D-B6DC-E320346309BE}"/>
   </hyperlinks>
-  <drawing r:id="rId21"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;11&amp;K000000PERSONAL/NONWORK // EXTERNAL&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
--- a/notes/Grad.schools.xlsx
+++ b/notes/Grad.schools.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\transit_credit-access\notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyrasadovi/Documents/transit_credit-access/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E90BFBD-15EB-4580-A25E-7B6E8636E2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BD36F2-0378-9045-9AA3-C7C086407ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27375" yWindow="3090" windowWidth="21795" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Application Details" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
   <si>
     <t>School</t>
   </si>
@@ -171,23 +171,78 @@
     <t>Emory</t>
   </si>
   <si>
-    <t>State</t>
-  </si>
-  <si>
     <t xml:space="preserve">Deadline </t>
   </si>
   <si>
-    <t xml:space="preserve">Application opens </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open now </t>
+    <t xml:space="preserve">Faculty to mention </t>
+  </si>
+  <si>
+    <t>Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resume? </t>
+  </si>
+  <si>
+    <t>Writing sample length</t>
+  </si>
+  <si>
+    <t># letters of rec</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Other requirements?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800 word research statement </t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joshua Gottlieb -- place-based policies. Jeffrey Grogger -- inequality and applied micro. Kelly Hallburg -- segregation, disinvestment. Damon Jones -- racial differences in financial outcomes. Paula Worthington -- metropolitan investment and super applied. </t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional </t>
+  </si>
+  <si>
+    <t>SoP Notes</t>
+  </si>
+  <si>
+    <t>300 word motivation statement</t>
+  </si>
+  <si>
+    <t>Additional optional essays</t>
+  </si>
+  <si>
+    <t>3 pages double spaced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal history statement (same length as SoP). Must explicitly mention 2 faculty members to work with. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total applications cost: </t>
+  </si>
+  <si>
+    <t>Cecile Gaubert -- high-speed rail and spatial sorting &amp; inequality. Hilary Hoynes -- inequality. Pat Kline -- trends in spatial inequality.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -213,6 +268,26 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -231,18 +306,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -460,22 +546,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,74 +574,170 @@
       <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C2" s="6">
+        <v>45266</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="7">
+        <v>200</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="6">
+        <v>45204</v>
+      </c>
+      <c r="D3" t="str">
+        <f>D2</f>
+        <v xml:space="preserve">Joshua Gottlieb -- place-based policies. Jeffrey Grogger -- inequality and applied micro. Kelly Hallburg -- segregation, disinvestment. Damon Jones -- racial differences in financial outcomes. Paula Worthington -- metropolitan investment and super applied. </v>
+      </c>
+      <c r="E3" s="9">
+        <v>100</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="6">
+        <v>45204</v>
+      </c>
+      <c r="D4" t="str">
+        <f>D2</f>
+        <v xml:space="preserve">Joshua Gottlieb -- place-based policies. Jeffrey Grogger -- inequality and applied micro. Kelly Hallburg -- segregation, disinvestment. Damon Jones -- racial differences in financial outcomes. Paula Worthington -- metropolitan investment and super applied. </v>
+      </c>
+      <c r="E4" s="9">
+        <v>100</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="3">
-        <v>45184</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="C5" s="3">
         <v>45264</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="9">
+        <v>135</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="3">
+      <c r="C6" s="3">
         <v>45278</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E6" s="9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -560,7 +745,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -568,21 +753,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="C9" s="3">
         <v>45261</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -590,7 +772,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -598,7 +780,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -606,7 +788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -614,7 +796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -622,22 +804,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -645,7 +827,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -653,7 +835,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -661,17 +843,26 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="43" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="11">
+        <f>SUM(E:E)</f>
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -704,18 +895,18 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,7 +929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -761,7 +952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -772,7 +963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -783,7 +974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -791,7 +982,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -799,7 +990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -807,7 +998,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -815,7 +1006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -823,7 +1014,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -831,7 +1022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -842,7 +1033,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -850,7 +1041,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -858,7 +1049,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -869,7 +1060,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -877,7 +1068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -885,7 +1076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -893,7 +1084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -901,7 +1092,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -909,7 +1100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -917,22 +1108,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -940,7 +1131,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -948,7 +1139,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -956,12 +1147,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>

--- a/notes/Grad.schools.xlsx
+++ b/notes/Grad.schools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyrasadovi/Documents/transit_credit-access/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BD36F2-0378-9045-9AA3-C7C086407ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061F4E86-6ACC-2F47-800B-1A0EDFCC339B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="68">
   <si>
     <t>School</t>
   </si>
@@ -225,13 +225,19 @@
     <t>3 pages double spaced</t>
   </si>
   <si>
-    <t xml:space="preserve">Personal history statement (same length as SoP). Must explicitly mention 2 faculty members to work with. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Total applications cost: </t>
   </si>
   <si>
     <t>Cecile Gaubert -- high-speed rail and spatial sorting &amp; inequality. Hilary Hoynes -- inequality. Pat Kline -- trends in spatial inequality.</t>
+  </si>
+  <si>
+    <t>2 pages double spaced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Caplin -- residential real estate. Michael Gilraine -- public housing. Daniel Waldinger -- public housing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal history statement (same length as SoP). Must explicitly mention 2 faculty members to work with in SoP. </t>
   </si>
 </sst>
 </file>
@@ -550,7 +556,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -702,7 +708,7 @@
         <v>45264</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="9">
         <v>135</v>
@@ -720,7 +726,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -733,8 +739,23 @@
       <c r="C6" s="3">
         <v>45278</v>
       </c>
+      <c r="D6" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="E6" s="9">
         <v>110</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -858,7 +879,7 @@
     </row>
     <row r="25" spans="1:2" ht="43" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="11">
         <f>SUM(E:E)</f>

--- a/notes/Grad.schools.xlsx
+++ b/notes/Grad.schools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyrasadovi/Documents/transit_credit-access/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061F4E86-6ACC-2F47-800B-1A0EDFCC339B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9CAF14-9E91-6B4A-A019-4BA418963DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="68">
   <si>
     <t>School</t>
   </si>
@@ -317,7 +317,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -332,6 +332,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -773,6 +774,27 @@
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="C8" s="12">
+        <v>45275</v>
+      </c>
+      <c r="E8" s="9">
+        <v>80</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -883,7 +905,7 @@
       </c>
       <c r="B25" s="11">
         <f>SUM(E:E)</f>
-        <v>645</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>

--- a/notes/Grad.schools.xlsx
+++ b/notes/Grad.schools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyrasadovi/Documents/transit_credit-access/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9CAF14-9E91-6B4A-A019-4BA418963DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430BA5BD-58B8-8A43-849C-7849C95E2F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="69">
   <si>
     <t>School</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t xml:space="preserve">Personal history statement (same length as SoP). Must explicitly mention 2 faculty members to work with in SoP. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gillies Duranton -- place-based policies and transportation. Fernando Ferreira -- racial discrimination in housing market. Joseph Gyourko -- housing. Todd Sinai -- housing, life-cycle wealth. Susan Wachter -- basically her entire CV </t>
   </si>
 </sst>
 </file>
@@ -555,9 +558,9 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -776,6 +779,9 @@
       </c>
       <c r="C8" s="12">
         <v>45275</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="E8" s="9">
         <v>80</v>

--- a/notes/Grad.schools.xlsx
+++ b/notes/Grad.schools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyrasadovi/Documents/transit_credit-access/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430BA5BD-58B8-8A43-849C-7849C95E2F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F04DA7F-65AF-B64E-BA7A-82644C5D09F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="75">
   <si>
     <t>School</t>
   </si>
@@ -241,6 +241,24 @@
   </si>
   <si>
     <t xml:space="preserve">Gillies Duranton -- place-based policies and transportation. Fernando Ferreira -- racial discrimination in housing market. Joseph Gyourko -- housing. Todd Sinai -- housing, life-cycle wealth. Susan Wachter -- basically her entire CV </t>
+  </si>
+  <si>
+    <t>BSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambridge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinity -- Dublin </t>
+  </si>
+  <si>
+    <t>250-500 words (?!!)</t>
+  </si>
+  <si>
+    <t>None. Pretty sparse application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Ernesto Carrillo -- a few housing papers. Remi Jedwab -- cool urban development papers. Anthony Yezer -- real estate finance and urban development. </t>
   </si>
 </sst>
 </file>
@@ -556,11 +574,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -769,6 +787,30 @@
       <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="C7" s="3">
+        <v>45306</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="9">
+        <v>80</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -905,13 +947,31 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="43" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10" t="s">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="28" spans="1:2" ht="43" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B28" s="11">
         <f>SUM(E:E)</f>
-        <v>725</v>
+        <v>805</v>
       </c>
     </row>
   </sheetData>

--- a/notes/Grad.schools.xlsx
+++ b/notes/Grad.schools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyrasadovi/Documents/transit_credit-access/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F04DA7F-65AF-B64E-BA7A-82644C5D09F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4498B3AA-446C-B040-B4F3-6F99B7ACB8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="83">
   <si>
     <t>School</t>
   </si>
@@ -259,6 +259,30 @@
   </si>
   <si>
     <t xml:space="preserve">Paul Ernesto Carrillo -- a few housing papers. Remi Jedwab -- cool urban development papers. Anthony Yezer -- real estate finance and urban development. </t>
+  </si>
+  <si>
+    <t>500 words</t>
+  </si>
+  <si>
+    <t>500 word diversity statement</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yujung Hwang -- neighborhood effects. Robert A. Moffitt -- public econ. Barbara Morgan -- public econ. Nicholas W. Papageorge -- cool education papers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A note: I'm not sure this faculty fits me well, skews macro </t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>500-word personal statement</t>
+  </si>
+  <si>
+    <t>Honestly, not a lot of people on faculty with similar interests. BUT, some public policy people in the Ford school. In econ, look at: Dean Yang, Basit Zafar, Christine Exley, Sara Heller, James R. Hines Jr., Brian Jacob, Mike Mueller-Smith, Edward C. Norton, Ana Reynoso, Benjamin Scuderi, Joel Slemrod, Melvin Stephens</t>
   </si>
 </sst>
 </file>
@@ -338,7 +362,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -353,7 +377,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -578,7 +603,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -667,8 +692,8 @@
         <f>D2</f>
         <v xml:space="preserve">Joshua Gottlieb -- place-based policies. Jeffrey Grogger -- inequality and applied micro. Kelly Hallburg -- segregation, disinvestment. Damon Jones -- racial differences in financial outcomes. Paula Worthington -- metropolitan investment and super applied. </v>
       </c>
-      <c r="E3" s="9">
-        <v>100</v>
+      <c r="E3" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>51</v>
@@ -700,8 +725,8 @@
         <f>D2</f>
         <v xml:space="preserve">Joshua Gottlieb -- place-based policies. Jeffrey Grogger -- inequality and applied micro. Kelly Hallburg -- segregation, disinvestment. Damon Jones -- racial differences in financial outcomes. Paula Worthington -- metropolitan investment and super applied. </v>
       </c>
-      <c r="E4" s="9">
-        <v>100</v>
+      <c r="E4" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>51</v>
@@ -819,7 +844,7 @@
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="3">
         <v>45275</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -854,6 +879,27 @@
       <c r="C9" s="3">
         <v>45261</v>
       </c>
+      <c r="D9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="9">
+        <v>90</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
@@ -862,13 +908,61 @@
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="C10" s="3">
+        <v>45292</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="9">
+        <v>75</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
+      <c r="B11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45261</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="9">
+        <v>75</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -971,7 +1065,7 @@
       </c>
       <c r="B28" s="11">
         <f>SUM(E:E)</f>
-        <v>805</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -984,12 +1078,12 @@
     <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B22" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B5" r:id="rId14" xr:uid="{5F417FAE-548E-43C2-A72F-EFF6AAC0C847}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B22" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B5" r:id="rId13" xr:uid="{5F417FAE-548E-43C2-A72F-EFF6AAC0C847}"/>
+    <hyperlink ref="B11" r:id="rId14" xr:uid="{CEBD452E-F47C-5C4A-B5D1-2D489AFAD36E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId15"/>

--- a/notes/Grad.schools.xlsx
+++ b/notes/Grad.schools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyrasadovi/Documents/transit_credit-access/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4498B3AA-446C-B040-B4F3-6F99B7ACB8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB970F3-4350-5241-8600-AD025F1ABF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="102">
   <si>
     <t>School</t>
   </si>
@@ -283,15 +283,73 @@
   </si>
   <si>
     <t>Honestly, not a lot of people on faculty with similar interests. BUT, some public policy people in the Ford school. In econ, look at: Dean Yang, Basit Zafar, Christine Exley, Sara Heller, James R. Hines Jr., Brian Jacob, Mike Mueller-Smith, Edward C. Norton, Ana Reynoso, Benjamin Scuderi, Joel Slemrod, Melvin Stephens</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up to 30 pages </t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A note: writing sample says it should be a research paper on which the applicant is *an* author. Could use the healthcare paper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandra Black -- wealth and inequality. Donald Davis -- segregation, spatial mobility, polarization. Brendan O'Flaherty -- homelessness, crime, race. Ebonya Washington -- voting rights, race, mobility. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIT </t>
+  </si>
+  <si>
+    <t>UMD-College Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also requires supplemental application, description of research experiences, and up to 3 writing samples </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princeton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judith Hellerstein -- spatial dimensions of unemployment, cool papers generally. Nolan Pope -- education public policy. Melissa Kearney -- UBIs, education outcomes </t>
+  </si>
+  <si>
+    <t>1000 words max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's 100 euro to be able to designate 3 programs you'd like to be considered for. Only 60 for one program. Need copy of passport. </t>
+  </si>
+  <si>
+    <t>MS in Econ/Econ Public Policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See note </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 words on reasons for application and 1000 words on career goals </t>
+  </si>
+  <si>
+    <t>MPhil in Econ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 page </t>
+  </si>
+  <si>
+    <t>MSc in Econ</t>
+  </si>
+  <si>
+    <t>UIC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="_([$€-2]\ * #,##0_);_([$€-2]\ * \(#,##0\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -362,12 +420,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -379,6 +436,10 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="6" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -599,11 +660,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -611,7 +672,7 @@
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" customWidth="1"/>
     <col min="7" max="7" width="14.1640625" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
@@ -627,25 +688,25 @@
       <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -653,25 +714,25 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>45266</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>200</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>55</v>
       </c>
       <c r="I2">
@@ -682,32 +743,32 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>45204</v>
       </c>
       <c r="D3" t="str">
         <f>D2</f>
         <v xml:space="preserve">Joshua Gottlieb -- place-based policies. Jeffrey Grogger -- inequality and applied micro. Kelly Hallburg -- segregation, disinvestment. Damon Jones -- racial differences in financial outcomes. Paula Worthington -- metropolitan investment and super applied. </v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -715,32 +776,32 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>45204</v>
       </c>
       <c r="D4" t="str">
         <f>D2</f>
         <v xml:space="preserve">Joshua Gottlieb -- place-based policies. Jeffrey Grogger -- inequality and applied micro. Kelly Hallburg -- segregation, disinvestment. Damon Jones -- racial differences in financial outcomes. Paula Worthington -- metropolitan investment and super applied. </v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -748,31 +809,31 @@
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="3">
         <v>45264</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>135</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>57</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>67</v>
       </c>
     </row>
@@ -780,26 +841,26 @@
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="3">
         <v>45278</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>110</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>58</v>
+      <c r="H6" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -809,31 +870,31 @@
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="3">
         <v>45306</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>80</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I7">
         <v>3</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="7" t="s">
         <v>73</v>
       </c>
     </row>
@@ -841,31 +902,31 @@
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="3">
         <v>45275</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>80</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>55</v>
       </c>
       <c r="I8">
         <v>3</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -873,31 +934,31 @@
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="3">
         <v>45261</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>90</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>76</v>
       </c>
     </row>
@@ -905,31 +966,31 @@
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="3">
         <v>45292</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>75</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I10">
         <v>2</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="7" t="s">
         <v>79</v>
       </c>
     </row>
@@ -937,136 +998,283 @@
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="3">
         <v>45261</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>75</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I11">
         <v>3</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45274</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="8">
+        <v>120</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45261</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="8">
+        <v>75</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="14">
+        <v>3</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="15">
+        <v>100</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="14">
+        <v>2</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45265</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="14">
+        <v>2</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="28" spans="1:2" ht="43" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <f>SUM(E:E)</f>
-        <v>845</v>
-      </c>
+        <v>1140</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1078,15 +1286,18 @@
     <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B22" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B5" r:id="rId13" xr:uid="{5F417FAE-548E-43C2-A72F-EFF6AAC0C847}"/>
-    <hyperlink ref="B11" r:id="rId14" xr:uid="{CEBD452E-F47C-5C4A-B5D1-2D489AFAD36E}"/>
+    <hyperlink ref="B21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B22" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B5" r:id="rId11" xr:uid="{5F417FAE-548E-43C2-A72F-EFF6AAC0C847}"/>
+    <hyperlink ref="B11" r:id="rId12" xr:uid="{CEBD452E-F47C-5C4A-B5D1-2D489AFAD36E}"/>
+    <hyperlink ref="B12" r:id="rId13" xr:uid="{CE1B6F0B-99DB-644D-A9E8-6D3D507E9BD1}"/>
+    <hyperlink ref="B13" r:id="rId14" xr:uid="{A4DEDE0E-6619-DB4E-9E11-376ABE075990}"/>
+    <hyperlink ref="B14" r:id="rId15" xr:uid="{FF01F1E2-5FB2-F04F-9617-5DDCDCBF3B40}"/>
+    <hyperlink ref="B15" r:id="rId16" xr:uid="{7C6CE824-AE30-494D-B258-0054A0D899EA}"/>
+    <hyperlink ref="B16" r:id="rId17" xr:uid="{62B1ED50-7C87-9F42-94A8-5B286787503B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Calibri"&amp;11&amp;K000000PERSONAL/NONWORK // EXTERNAL&amp;1#</oddHeader>
   </headerFooter>

--- a/notes/Grad.schools.xlsx
+++ b/notes/Grad.schools.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyrasadovi/Documents/transit_credit-access/notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\arc\dfs\unix\scratch\m1kms01\transit_credit-access\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB970F3-4350-5241-8600-AD025F1ABF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8CDCA8-A263-474F-8006-8404D8FECD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Application Details" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="104">
   <si>
     <t>School</t>
   </si>
@@ -340,6 +340,12 @@
   </si>
   <si>
     <t>UIC</t>
+  </si>
+  <si>
+    <t>1-2 pages single spaced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rachel Kranton -- network effects.Patrick Bayer -- racial discrimination.  Jason Baron -- really cool foster care work. Overall awesome faculty, a lot of potential advisors and cool people </t>
   </si>
 </sst>
 </file>
@@ -349,7 +355,7 @@
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="_([$€-2]\ * #,##0_);_([$€-2]\ * \(#,##0\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0_);_([$€-2]\ * \(#,##0\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -438,7 +444,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -663,22 +669,22 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.4609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="14.4609375" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="6.5" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="19.4609375" customWidth="1"/>
+    <col min="5" max="5" width="6.4609375" customWidth="1"/>
+    <col min="6" max="6" width="8.69140625" customWidth="1"/>
+    <col min="7" max="7" width="14.15234375" customWidth="1"/>
+    <col min="8" max="8" width="18.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,7 +716,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -739,7 +745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -772,7 +778,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -805,7 +811,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -837,7 +843,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -866,7 +872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -898,7 +904,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -930,7 +936,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -962,7 +968,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -994,7 +1000,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>83</v>
       </c>
@@ -1058,7 +1064,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>89</v>
       </c>
@@ -1090,7 +1096,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>69</v>
       </c>
@@ -1122,7 +1128,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
@@ -1154,7 +1160,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>71</v>
       </c>
@@ -1183,29 +1189,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="3">
+        <v>44930</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="8">
+        <v>90</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>88</v>
       </c>
@@ -1218,7 +1244,7 @@
       <c r="H20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -1227,7 +1253,7 @@
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -1236,44 +1262,44 @@
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="43.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B28" s="10">
         <f>SUM(E:E)</f>
-        <v>1140</v>
+        <v>1230</v>
       </c>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="3"/>
     </row>
   </sheetData>
@@ -1295,9 +1321,10 @@
     <hyperlink ref="B14" r:id="rId15" xr:uid="{FF01F1E2-5FB2-F04F-9617-5DDCDCBF3B40}"/>
     <hyperlink ref="B15" r:id="rId16" xr:uid="{7C6CE824-AE30-494D-B258-0054A0D899EA}"/>
     <hyperlink ref="B16" r:id="rId17" xr:uid="{62B1ED50-7C87-9F42-94A8-5B286787503B}"/>
+    <hyperlink ref="B17" r:id="rId18" xr:uid="{1B93CA37-878D-49EE-B5EB-04AB17E9D9F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Calibri"&amp;11&amp;K000000PERSONAL/NONWORK // EXTERNAL&amp;1#</oddHeader>
   </headerFooter>
@@ -1312,15 +1339,15 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.4609375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="4" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="14.4609375" customWidth="1"/>
+    <col min="3" max="3" width="11.15234375" customWidth="1"/>
+    <col min="4" max="5" width="19.4609375" customWidth="1"/>
+    <col min="6" max="6" width="16.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1343,7 +1370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1366,7 +1393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1377,7 +1404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1388,7 +1415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,7 +1423,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1404,7 +1431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1412,7 +1439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1420,7 +1447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1428,7 +1455,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1436,7 +1463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1447,7 +1474,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1455,7 +1482,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1463,7 +1490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1474,7 +1501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1482,7 +1509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1490,7 +1517,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -1498,7 +1525,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1506,7 +1533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1514,7 +1541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1522,22 +1549,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -1545,7 +1572,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -1553,7 +1580,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1561,12 +1588,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>

--- a/notes/Grad.schools.xlsx
+++ b/notes/Grad.schools.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\arc\dfs\unix\scratch\m1kms01\transit_credit-access\notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyrasadovi/Documents/transit_credit-access/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8CDCA8-A263-474F-8006-8404D8FECD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0D8495-5393-1D49-AD1E-EDD34D1D8234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Application Details" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="109">
   <si>
     <t>School</t>
   </si>
@@ -309,9 +309,6 @@
     <t xml:space="preserve">Also requires supplemental application, description of research experiences, and up to 3 writing samples </t>
   </si>
   <si>
-    <t xml:space="preserve">Princeton </t>
-  </si>
-  <si>
     <t xml:space="preserve">Judith Hellerstein -- spatial dimensions of unemployment, cool papers generally. Nolan Pope -- education public policy. Melissa Kearney -- UBIs, education outcomes </t>
   </si>
   <si>
@@ -339,13 +336,31 @@
     <t>MSc in Econ</t>
   </si>
   <si>
-    <t>UIC</t>
-  </si>
-  <si>
     <t>1-2 pages single spaced</t>
   </si>
   <si>
     <t xml:space="preserve">Rachel Kranton -- network effects.Patrick Bayer -- racial discrimination.  Jason Baron -- really cool foster care work. Overall awesome faculty, a lot of potential advisors and cool people </t>
+  </si>
+  <si>
+    <t>Luca Flabbi -- gender dynamics in the labor market. Jane Fruehwirth -- education and desegregation effects. Chris Handy -- intergenerational mobility.</t>
+  </si>
+  <si>
+    <t>2 pages single spaced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parag Pathak -- cool paper on CPS, race and school quality, etc. Nathaniel Hendren -- social mobility. Simon Jager -- labor. </t>
+  </si>
+  <si>
+    <t>They require a professional resume and an "analytical/quantitative resume", which is likely to overlap.</t>
+  </si>
+  <si>
+    <t>No SoP, but 6 essays. Ugh.</t>
+  </si>
+  <si>
+    <t>Max 20 pages. IDK what that means.</t>
+  </si>
+  <si>
+    <t>Will Dobbie -- housing discrimination. Luis Armona -- home price expectations. Desmond Ang -- violence on inner-city students.</t>
   </si>
 </sst>
 </file>
@@ -443,9 +458,9 @@
     <xf numFmtId="6" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -666,25 +681,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.4609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.4609375" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="19.4609375" customWidth="1"/>
-    <col min="5" max="5" width="6.4609375" customWidth="1"/>
-    <col min="6" max="6" width="8.69140625" customWidth="1"/>
-    <col min="7" max="7" width="14.15234375" customWidth="1"/>
-    <col min="8" max="8" width="18.4609375" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,7 +731,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -745,12 +760,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="5">
         <v>45204</v>
@@ -778,60 +793,59 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5">
-        <v>45204</v>
-      </c>
-      <c r="D4" t="str">
-        <f>D2</f>
-        <v xml:space="preserve">Joshua Gottlieb -- place-based policies. Jeffrey Grogger -- inequality and applied micro. Kelly Hallburg -- segregation, disinvestment. Damon Jones -- racial differences in financial outcomes. Paula Worthington -- metropolitan investment and super applied. </v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>80</v>
+        <v>29</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45264</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="8">
+        <v>135</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="3">
-        <v>45264</v>
+        <v>45278</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E5" s="8">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>57</v>
@@ -839,153 +853,153 @@
       <c r="I5">
         <v>3</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="3">
-        <v>45278</v>
+        <v>45306</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E6" s="8">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3">
-        <v>45306</v>
+        <v>45275</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E7" s="8">
         <v>80</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I7">
         <v>3</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3">
-        <v>45275</v>
+        <v>45261</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E8" s="8">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45292</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="8">
+        <v>75</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="3">
-        <v>45261</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="8">
-        <v>90</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>55</v>
+      <c r="I9">
+        <v>2</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="3">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E10" s="8">
         <v>75</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>55</v>
@@ -994,27 +1008,27 @@
         <v>52</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="3">
-        <v>45261</v>
+        <v>45274</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E11" s="8">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>51</v>
@@ -1023,30 +1037,30 @@
         <v>55</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
+        <v>84</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="3">
-        <v>45274</v>
+        <v>45261</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E12" s="8">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>51</v>
@@ -1055,88 +1069,88 @@
         <v>55</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>85</v>
+        <v>57</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3">
-        <v>45261</v>
+        <v>94</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="8">
-        <v>75</v>
+        <v>52</v>
+      </c>
+      <c r="E13" s="14">
+        <v>100</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>55</v>
+      <c r="G13" t="s">
+        <v>92</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="14">
-        <v>3</v>
+        <v>52</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>55</v>
+        <v>97</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45265</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="15">
-        <v>100</v>
+      <c r="E14" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G14" t="s">
-        <v>93</v>
+      <c r="G14" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14">
         <v>2</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="3">
-        <v>45265</v>
+        <v>99</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>52</v>
@@ -1148,183 +1162,204 @@
         <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15">
         <v>2</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>71</v>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>55</v>
+        <v>29</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44930</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>55</v>
+        <v>101</v>
+      </c>
+      <c r="E16" s="8">
+        <v>90</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="3">
-        <v>44930</v>
+        <v>45272</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E17" s="8">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>102</v>
+      <c r="G17" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="B18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="3">
+        <v>45275</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="8">
+        <v>75</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B19" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="C19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="8">
+        <v>100</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45261</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="8">
+        <v>100</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>8</v>
+    <row r="22" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="10">
+        <f>SUM(E:E)</f>
+        <v>1600</v>
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" ht="43.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="10">
-        <f>SUM(E:E)</f>
-        <v>1230</v>
-      </c>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B22" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B5" r:id="rId11" xr:uid="{5F417FAE-548E-43C2-A72F-EFF6AAC0C847}"/>
-    <hyperlink ref="B11" r:id="rId12" xr:uid="{CEBD452E-F47C-5C4A-B5D1-2D489AFAD36E}"/>
-    <hyperlink ref="B12" r:id="rId13" xr:uid="{CE1B6F0B-99DB-644D-A9E8-6D3D507E9BD1}"/>
-    <hyperlink ref="B13" r:id="rId14" xr:uid="{A4DEDE0E-6619-DB4E-9E11-376ABE075990}"/>
-    <hyperlink ref="B14" r:id="rId15" xr:uid="{FF01F1E2-5FB2-F04F-9617-5DDCDCBF3B40}"/>
-    <hyperlink ref="B15" r:id="rId16" xr:uid="{7C6CE824-AE30-494D-B258-0054A0D899EA}"/>
-    <hyperlink ref="B16" r:id="rId17" xr:uid="{62B1ED50-7C87-9F42-94A8-5B286787503B}"/>
-    <hyperlink ref="B17" r:id="rId18" xr:uid="{1B93CA37-878D-49EE-B5EB-04AB17E9D9F3}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B19" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B20" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B4" r:id="rId10" xr:uid="{5F417FAE-548E-43C2-A72F-EFF6AAC0C847}"/>
+    <hyperlink ref="B10" r:id="rId11" xr:uid="{CEBD452E-F47C-5C4A-B5D1-2D489AFAD36E}"/>
+    <hyperlink ref="B11" r:id="rId12" xr:uid="{CE1B6F0B-99DB-644D-A9E8-6D3D507E9BD1}"/>
+    <hyperlink ref="B12" r:id="rId13" xr:uid="{A4DEDE0E-6619-DB4E-9E11-376ABE075990}"/>
+    <hyperlink ref="B13" r:id="rId14" xr:uid="{FF01F1E2-5FB2-F04F-9617-5DDCDCBF3B40}"/>
+    <hyperlink ref="B14" r:id="rId15" xr:uid="{7C6CE824-AE30-494D-B258-0054A0D899EA}"/>
+    <hyperlink ref="B15" r:id="rId16" xr:uid="{62B1ED50-7C87-9F42-94A8-5B286787503B}"/>
+    <hyperlink ref="B16" r:id="rId17" xr:uid="{1B93CA37-878D-49EE-B5EB-04AB17E9D9F3}"/>
+    <hyperlink ref="B17" r:id="rId18" xr:uid="{B0D76AAF-EEBA-B84E-9E94-1054BCB2B39F}"/>
+    <hyperlink ref="B18" r:id="rId19" xr:uid="{DE4CF150-431E-F943-B00A-9916FAE52C5A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Calibri"&amp;11&amp;K000000PERSONAL/NONWORK // EXTERNAL&amp;1#</oddHeader>
   </headerFooter>
@@ -1339,15 +1374,15 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.4609375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.4609375" customWidth="1"/>
-    <col min="3" max="3" width="11.15234375" customWidth="1"/>
-    <col min="4" max="5" width="19.4609375" customWidth="1"/>
-    <col min="6" max="6" width="16.4609375" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1370,7 +1405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1393,7 +1428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1404,7 +1439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1415,7 +1450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1423,7 +1458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1431,7 +1466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1439,7 +1474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1447,7 +1482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1455,7 +1490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1463,7 +1498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1474,7 +1509,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1482,7 +1517,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1490,7 +1525,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1501,7 +1536,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1509,7 +1544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1517,7 +1552,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -1525,7 +1560,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1533,7 +1568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1541,7 +1576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1549,22 +1584,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -1572,7 +1607,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -1580,7 +1615,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1588,12 +1623,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>

--- a/notes/Grad.schools.xlsx
+++ b/notes/Grad.schools.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyrasadovi/Documents/transit_credit-access/notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\arc\dfs\unix\scratch\m1kms01\transit_credit-access\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0D8495-5393-1D49-AD1E-EDD34D1D8234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A11A14-95BA-4354-A371-57774E5FF378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Application Details" sheetId="1" r:id="rId1"/>
@@ -684,22 +684,22 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.4609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="6.5" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="14.4609375" customWidth="1"/>
+    <col min="3" max="3" width="11.15234375" customWidth="1"/>
+    <col min="4" max="4" width="19.4609375" customWidth="1"/>
+    <col min="5" max="5" width="6.4609375" customWidth="1"/>
+    <col min="6" max="6" width="8.69140625" customWidth="1"/>
+    <col min="7" max="7" width="14.15234375" customWidth="1"/>
+    <col min="8" max="8" width="18.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -731,7 +731,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -760,7 +760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -793,7 +793,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -825,7 +825,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -854,7 +854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -886,7 +886,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -918,7 +918,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -950,7 +950,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -982,7 +982,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>83</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>89</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>69</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>70</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>71</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>88</v>
       </c>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1320,10 +1320,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="3">
+        <f>MIN(C2:C20)</f>
+        <v>44930</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>63</v>
       </c>
@@ -1333,7 +1336,7 @@
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="3"/>
     </row>
   </sheetData>
@@ -1374,15 +1377,15 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.4609375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="4" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="14.4609375" customWidth="1"/>
+    <col min="3" max="3" width="11.15234375" customWidth="1"/>
+    <col min="4" max="5" width="19.4609375" customWidth="1"/>
+    <col min="6" max="6" width="16.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1405,7 +1408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1428,7 +1431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1439,7 +1442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1450,7 +1453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1458,7 +1461,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1466,7 +1469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1474,7 +1477,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1482,7 +1485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1490,7 +1493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1498,7 +1501,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1509,7 +1512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1517,7 +1520,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1525,7 +1528,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1536,7 +1539,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1544,7 +1547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1552,7 +1555,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1568,7 +1571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1576,7 +1579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1584,22 +1587,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -1615,7 +1618,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1623,12 +1626,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>

--- a/notes/Grad.schools.xlsx
+++ b/notes/Grad.schools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\arc\dfs\unix\scratch\m1kms01\transit_credit-access\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A11A14-95BA-4354-A371-57774E5FF378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3836AF43-8C00-4A22-86F1-F8D7730681D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="116">
   <si>
     <t>School</t>
   </si>
@@ -342,9 +342,6 @@
     <t xml:space="preserve">Rachel Kranton -- network effects.Patrick Bayer -- racial discrimination.  Jason Baron -- really cool foster care work. Overall awesome faculty, a lot of potential advisors and cool people </t>
   </si>
   <si>
-    <t>Luca Flabbi -- gender dynamics in the labor market. Jane Fruehwirth -- education and desegregation effects. Chris Handy -- intergenerational mobility.</t>
-  </si>
-  <si>
     <t>2 pages single spaced</t>
   </si>
   <si>
@@ -361,6 +358,30 @@
   </si>
   <si>
     <t>Will Dobbie -- housing discrimination. Luis Armona -- home price expectations. Desmond Ang -- violence on inner-city students.</t>
+  </si>
+  <si>
+    <t>Joseph Altonji -- cool research on the role of families and schools in inequality. Gerald Jaynes -- research on Black participation in the labor market and effects of migration on the Black working class (possibly emeritus?). Ed Vytlacil -- evaluating disparate returns to schooling, speaks to disparate impact of treatment effects (like my NSF proposal).</t>
+  </si>
+  <si>
+    <t>500-1000 words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsure? </t>
+  </si>
+  <si>
+    <t>Econ Ranking</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Pepper -- cool policy evaluation work. Sarah Turner -- disparate returns to higher education, inequality. Amalia Miller -- gender labor papers. </t>
   </si>
 </sst>
 </file>
@@ -681,229 +702,248 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.4609375" customWidth="1"/>
-    <col min="3" max="3" width="11.15234375" customWidth="1"/>
-    <col min="4" max="4" width="19.4609375" customWidth="1"/>
-    <col min="5" max="5" width="6.4609375" customWidth="1"/>
-    <col min="6" max="6" width="8.69140625" customWidth="1"/>
-    <col min="7" max="7" width="14.15234375" customWidth="1"/>
-    <col min="8" max="8" width="18.4609375" customWidth="1"/>
+    <col min="3" max="3" width="14.4609375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.15234375" customWidth="1"/>
+    <col min="5" max="5" width="19.4609375" customWidth="1"/>
+    <col min="6" max="6" width="6.4609375" customWidth="1"/>
+    <col min="7" max="7" width="8.69140625" customWidth="1"/>
+    <col min="8" max="8" width="14.15234375" customWidth="1"/>
+    <col min="9" max="9" width="18.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="5">
         <v>45266</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="6">
+      <c r="F2" s="6">
         <v>200</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="5">
         <v>45204</v>
       </c>
-      <c r="D3" t="str">
-        <f>D2</f>
+      <c r="E3" t="str">
+        <f>E2</f>
         <v xml:space="preserve">Joshua Gottlieb -- place-based policies. Jeffrey Grogger -- inequality and applied micro. Kelly Hallburg -- segregation, disinvestment. Damon Jones -- racial differences in financial outcomes. Paula Worthington -- metropolitan investment and super applied. </v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>3</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
         <v>45264</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F4" s="8">
         <v>135</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
         <v>45278</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="8">
+      <c r="F5" s="8">
         <v>110</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
+        <v>61</v>
+      </c>
+      <c r="D6" s="3">
         <v>45306</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="8">
+      <c r="F6" s="8">
         <v>80</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="3">
         <v>45275</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="8">
+      <c r="F7" s="8">
         <v>80</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>55</v>
@@ -911,433 +951,513 @@
       <c r="H7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7">
         <v>3</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>45261</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="8">
+      <c r="F8" s="8">
         <v>90</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3">
         <v>45292</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="8">
+      <c r="F9" s="8">
         <v>75</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>2</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3">
         <v>45261</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="8">
+      <c r="F10" s="8">
         <v>75</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>3</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3">
         <v>45274</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="8">
+      <c r="F11" s="8">
         <v>120</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="J11" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3">
         <v>45261</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="8">
+      <c r="F12" s="8">
         <v>75</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="I12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>3</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="14">
+      <c r="F13" s="14">
         <v>100</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="3">
         <v>45265</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>2</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3">
         <v>44930</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="8">
+      <c r="F16" s="8">
         <v>90</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3">
-        <v>45272</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="8">
-        <v>95</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="C17" s="4">
+        <v>30</v>
+      </c>
+      <c r="D17" s="3">
+        <v>45306</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="8">
+        <v>85</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
         <v>45275</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="8">
         <v>75</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="H18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>3</v>
       </c>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="8">
+      <c r="F19" s="8">
         <v>100</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="H19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>3</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="3">
         <v>45261</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="8">
+        <v>100</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="4">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3">
+        <v>45261</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="8">
-        <v>100</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20">
+      <c r="F21" s="8">
+        <v>105</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="3">
-        <f>MIN(C2:C20)</f>
-        <v>44930</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B22" s="10">
-        <f>SUM(E:E)</f>
-        <v>1600</v>
-      </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="3"/>
+        <f>SUM(F:F)</f>
+        <v>1695</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <f>_xlfn.QUARTILE.INC(C:C,1)</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <f>_xlfn.QUARTILE.INC(C:C,2)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <f>_xlfn.QUARTILE.INC(C:C,3)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f>_xlfn.QUARTILE.INC(C:C,4)</f>
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1358,11 +1478,12 @@
     <hyperlink ref="B14" r:id="rId15" xr:uid="{7C6CE824-AE30-494D-B258-0054A0D899EA}"/>
     <hyperlink ref="B15" r:id="rId16" xr:uid="{62B1ED50-7C87-9F42-94A8-5B286787503B}"/>
     <hyperlink ref="B16" r:id="rId17" xr:uid="{1B93CA37-878D-49EE-B5EB-04AB17E9D9F3}"/>
-    <hyperlink ref="B17" r:id="rId18" xr:uid="{B0D76AAF-EEBA-B84E-9E94-1054BCB2B39F}"/>
-    <hyperlink ref="B18" r:id="rId19" xr:uid="{DE4CF150-431E-F943-B00A-9916FAE52C5A}"/>
+    <hyperlink ref="B18" r:id="rId18" xr:uid="{DE4CF150-431E-F943-B00A-9916FAE52C5A}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{758FF3B7-7422-4CA8-8353-6CEC896418A2}"/>
+    <hyperlink ref="B17" r:id="rId20" xr:uid="{27EAEAD3-5A22-45D5-8B9B-93351924D911}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Calibri"&amp;11&amp;K000000PERSONAL/NONWORK // EXTERNAL&amp;1#</oddHeader>
   </headerFooter>

--- a/notes/Grad.schools.xlsx
+++ b/notes/Grad.schools.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\arc\dfs\unix\scratch\m1kms01\transit_credit-access\notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyrasadovi/Documents/transit_credit-access/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3836AF43-8C00-4A22-86F1-F8D7730681D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC623843-4A0C-5E46-BDD1-660B70D925E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Application Details" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="116">
   <si>
     <t>School</t>
   </si>
@@ -276,9 +276,6 @@
     <t xml:space="preserve">A note: I'm not sure this faculty fits me well, skews macro </t>
   </si>
   <si>
-    <t>^</t>
-  </si>
-  <si>
     <t>500-word personal statement</t>
   </si>
   <si>
@@ -382,6 +379,9 @@
   </si>
   <si>
     <t xml:space="preserve">John Pepper -- cool policy evaluation work. Sarah Turner -- disparate returns to higher education, inequality. Amalia Miller -- gender labor papers. </t>
+  </si>
+  <si>
+    <t>Same as PhD</t>
   </si>
 </sst>
 </file>
@@ -705,23 +705,23 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.4609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.4609375" customWidth="1"/>
-    <col min="3" max="3" width="14.4609375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.15234375" customWidth="1"/>
-    <col min="5" max="5" width="19.4609375" customWidth="1"/>
-    <col min="6" max="6" width="6.4609375" customWidth="1"/>
-    <col min="7" max="7" width="8.69140625" customWidth="1"/>
-    <col min="8" max="8" width="14.15234375" customWidth="1"/>
-    <col min="9" max="9" width="18.4609375" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>45</v>
@@ -756,267 +756,263 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="5">
-        <v>45266</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="6">
-        <v>200</v>
-      </c>
-      <c r="G2" s="4" t="s">
+        <v>45204</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="5">
-        <v>45204</v>
-      </c>
-      <c r="E3" t="str">
-        <f>E2</f>
-        <v xml:space="preserve">Joshua Gottlieb -- place-based policies. Jeffrey Grogger -- inequality and applied micro. Kelly Hallburg -- segregation, disinvestment. Damon Jones -- racial differences in financial outcomes. Paula Worthington -- metropolitan investment and super applied. </v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>80</v>
+        <v>24</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45261</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="8">
+        <v>90</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J3">
-        <v>3</v>
+      <c r="J3" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="4">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="D4" s="3">
-        <v>45264</v>
+        <v>45261</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="F4" s="8">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>45278</v>
+        <v>45261</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F5" s="8">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
+      <c r="K5" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="4">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3">
-        <v>45306</v>
+        <v>45261</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F6" s="8">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>113</v>
+        <v>29</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>45275</v>
+        <v>45261</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="F7" s="8">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>45261</v>
+        <v>45264</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="8">
+        <v>135</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45265</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="8">
-        <v>90</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="F9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="4">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3">
-        <v>45292</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="8">
-        <v>75</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="H9" s="7" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>52</v>
@@ -1025,47 +1021,44 @@
         <v>2</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3">
-        <v>45261</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="8">
-        <v>75</v>
-      </c>
-      <c r="G10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="5">
+        <v>45266</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="6">
+        <v>200</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>51</v>
       </c>
       <c r="H10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>29</v>
@@ -1077,7 +1070,7 @@
         <v>45274</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="8">
         <v>120</v>
@@ -1089,135 +1082,139 @@
         <v>55</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="K11" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="4">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>45261</v>
+        <v>45275</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F12" s="8">
         <v>75</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J12">
         <v>3</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>69</v>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="3">
+        <v>45275</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="8">
+        <v>80</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="14">
-        <v>100</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" t="s">
-        <v>92</v>
+      <c r="H13" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>97</v>
+        <v>29</v>
+      </c>
+      <c r="C14" s="4">
+        <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>45265</v>
+        <v>45278</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="F14" s="8">
+        <v>110</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J14">
-        <v>2</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>71</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4">
+        <v>22</v>
+      </c>
+      <c r="D15" s="3">
+        <v>45292</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="8">
+        <v>75</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>52</v>
@@ -1225,8 +1222,11 @@
       <c r="J15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -1237,10 +1237,10 @@
         <v>18</v>
       </c>
       <c r="D16" s="3">
-        <v>44930</v>
+        <v>45295</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F16" s="8">
         <v>90</v>
@@ -1249,7 +1249,7 @@
         <v>51</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>52</v>
@@ -1258,171 +1258,170 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="4">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D17" s="3">
         <v>45306</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="F17" s="8">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="16" t="s">
-        <v>55</v>
+      <c r="H17" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>52</v>
       </c>
       <c r="J17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>88</v>
+        <v>3</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D18" s="3">
-        <v>45275</v>
+        <v>45306</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="F18" s="8">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>102</v>
+        <v>51</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>52</v>
       </c>
       <c r="J18">
-        <v>3</v>
-      </c>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="14">
         <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>105</v>
+      <c r="H19" t="s">
+        <v>91</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>52</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="3">
-        <v>45261</v>
+        <v>111</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="F20" s="8">
         <v>100</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="J20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
+      <c r="K20" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="4">
-        <v>4</v>
-      </c>
-      <c r="D21" s="3">
-        <v>45261</v>
+        <v>98</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="8">
-        <v>105</v>
+        <v>52</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="J21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>63</v>
       </c>
@@ -1432,55 +1431,58 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24">
         <f>_xlfn.QUARTILE.INC(C:C,1)</f>
         <v>6.5</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25">
         <f>_xlfn.QUARTILE.INC(C:C,2)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26">
         <f>_xlfn.QUARTILE.INC(C:C,3)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27">
         <f>_xlfn.QUARTILE.INC(C:C,4)</f>
         <v>61</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K29">
+    <sortCondition ref="D2:D29"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B19" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B20" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B4" r:id="rId10" xr:uid="{5F417FAE-548E-43C2-A72F-EFF6AAC0C847}"/>
-    <hyperlink ref="B10" r:id="rId11" xr:uid="{CEBD452E-F47C-5C4A-B5D1-2D489AFAD36E}"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B8" r:id="rId10" xr:uid="{5F417FAE-548E-43C2-A72F-EFF6AAC0C847}"/>
+    <hyperlink ref="B5" r:id="rId11" xr:uid="{CEBD452E-F47C-5C4A-B5D1-2D489AFAD36E}"/>
     <hyperlink ref="B11" r:id="rId12" xr:uid="{CE1B6F0B-99DB-644D-A9E8-6D3D507E9BD1}"/>
-    <hyperlink ref="B12" r:id="rId13" xr:uid="{A4DEDE0E-6619-DB4E-9E11-376ABE075990}"/>
-    <hyperlink ref="B13" r:id="rId14" xr:uid="{FF01F1E2-5FB2-F04F-9617-5DDCDCBF3B40}"/>
-    <hyperlink ref="B14" r:id="rId15" xr:uid="{7C6CE824-AE30-494D-B258-0054A0D899EA}"/>
-    <hyperlink ref="B15" r:id="rId16" xr:uid="{62B1ED50-7C87-9F42-94A8-5B286787503B}"/>
+    <hyperlink ref="B6" r:id="rId13" xr:uid="{A4DEDE0E-6619-DB4E-9E11-376ABE075990}"/>
+    <hyperlink ref="B19" r:id="rId14" xr:uid="{FF01F1E2-5FB2-F04F-9617-5DDCDCBF3B40}"/>
+    <hyperlink ref="B9" r:id="rId15" xr:uid="{7C6CE824-AE30-494D-B258-0054A0D899EA}"/>
+    <hyperlink ref="B21" r:id="rId16" xr:uid="{62B1ED50-7C87-9F42-94A8-5B286787503B}"/>
     <hyperlink ref="B16" r:id="rId17" xr:uid="{1B93CA37-878D-49EE-B5EB-04AB17E9D9F3}"/>
-    <hyperlink ref="B18" r:id="rId18" xr:uid="{DE4CF150-431E-F943-B00A-9916FAE52C5A}"/>
-    <hyperlink ref="B21" r:id="rId19" xr:uid="{758FF3B7-7422-4CA8-8353-6CEC896418A2}"/>
-    <hyperlink ref="B17" r:id="rId20" xr:uid="{27EAEAD3-5A22-45D5-8B9B-93351924D911}"/>
+    <hyperlink ref="B12" r:id="rId18" xr:uid="{DE4CF150-431E-F943-B00A-9916FAE52C5A}"/>
+    <hyperlink ref="B7" r:id="rId19" xr:uid="{758FF3B7-7422-4CA8-8353-6CEC896418A2}"/>
+    <hyperlink ref="B18" r:id="rId20" xr:uid="{27EAEAD3-5A22-45D5-8B9B-93351924D911}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId21"/>
@@ -1498,15 +1500,15 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.4609375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.4609375" customWidth="1"/>
-    <col min="3" max="3" width="11.15234375" customWidth="1"/>
-    <col min="4" max="5" width="19.4609375" customWidth="1"/>
-    <col min="6" max="6" width="16.4609375" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +1531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1552,7 +1554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1563,7 +1565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1574,7 +1576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1582,7 +1584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1590,7 +1592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1598,7 +1600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1606,7 +1608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1614,7 +1616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1622,7 +1624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1633,7 +1635,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1641,7 +1643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1649,7 +1651,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1660,7 +1662,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1668,7 +1670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1676,7 +1678,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,7 +1686,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1692,7 +1694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1700,7 +1702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1708,22 +1710,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -1731,7 +1733,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -1739,7 +1741,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1747,12 +1749,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>

--- a/notes/Grad.schools.xlsx
+++ b/notes/Grad.schools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\arc\dfs\unix\scratch\m1kms01\transit_credit-access\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3836AF43-8C00-4A22-86F1-F8D7730681D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD09601-125F-43AE-AE07-B21A9F071945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-45" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Application Details" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="116">
   <si>
     <t>School</t>
   </si>
@@ -705,8 +705,8 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1204,8 +1204,8 @@
       <c r="B15" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>55</v>
+      <c r="D15" s="15">
+        <v>45474</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>52</v>

--- a/notes/Grad.schools.xlsx
+++ b/notes/Grad.schools.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\arc\dfs\unix\scratch\m1kms01\transit_credit-access\notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\transit_credit-access\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD09601-125F-43AE-AE07-B21A9F071945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FE07B1-68EC-44FA-860B-3D5FF331AAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-45" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Application Details" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="114">
   <si>
     <t>School</t>
   </si>
@@ -376,12 +376,6 @@
   </si>
   <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>UVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Pepper -- cool policy evaluation work. Sarah Turner -- disparate returns to higher education, inequality. Amalia Miller -- gender labor papers. </t>
   </si>
 </sst>
 </file>
@@ -462,7 +456,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -481,7 +475,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -702,26 +695,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.4609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.4609375" customWidth="1"/>
-    <col min="3" max="3" width="14.4609375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.15234375" customWidth="1"/>
-    <col min="5" max="5" width="19.4609375" customWidth="1"/>
-    <col min="6" max="6" width="6.4609375" customWidth="1"/>
-    <col min="7" max="7" width="8.69140625" customWidth="1"/>
-    <col min="8" max="8" width="14.15234375" customWidth="1"/>
-    <col min="9" max="9" width="18.4609375" customWidth="1"/>
+    <col min="2" max="2" width="14.46484375" customWidth="1"/>
+    <col min="3" max="3" width="14.46484375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" customWidth="1"/>
+    <col min="5" max="5" width="19.46484375" customWidth="1"/>
+    <col min="6" max="6" width="6.46484375" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1328125" customWidth="1"/>
+    <col min="9" max="9" width="18.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,7 +749,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -788,7 +781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,7 +817,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -859,7 +852,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -891,7 +884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -926,7 +919,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -961,7 +954,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -993,7 +986,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1028,7 +1021,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1063,7 +1056,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>83</v>
       </c>
@@ -1098,7 +1091,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>89</v>
       </c>
@@ -1133,7 +1126,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>69</v>
       </c>
@@ -1165,7 +1158,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>70</v>
       </c>
@@ -1197,7 +1190,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>71</v>
       </c>
@@ -1226,7 +1219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -1258,62 +1251,63 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>114</v>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>45306</v>
+        <v>45275</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F17" s="8">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>55</v>
+        <v>77</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>52</v>
       </c>
       <c r="J17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>88</v>
+        <v>3</v>
+      </c>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
-        <v>45275</v>
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="F18" s="8">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>52</v>
@@ -1321,140 +1315,107 @@
       <c r="J18">
         <v>3</v>
       </c>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>55</v>
+      <c r="D19" s="3">
+        <v>45261</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F19" s="8">
         <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="J19">
         <v>3</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>112</v>
+        <v>29</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4</v>
       </c>
       <c r="D20" s="3">
         <v>45261</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F20" s="8">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="4">
-        <v>4</v>
-      </c>
-      <c r="D21" s="3">
-        <v>45261</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="8">
-        <v>105</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+    <row r="21" spans="1:11" ht="43.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B21" s="10">
         <f>SUM(F:F)</f>
-        <v>1695</v>
-      </c>
+        <v>1610</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <f>_xlfn.QUARTILE.INC(C:C,1)</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24">
-        <f>_xlfn.QUARTILE.INC(C:C,1)</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f>_xlfn.QUARTILE.INC(C:C,2)</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25">
-        <f>_xlfn.QUARTILE.INC(C:C,2)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f>_xlfn.QUARTILE.INC(C:C,3)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26">
-        <f>_xlfn.QUARTILE.INC(C:C,3)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27">
         <f>_xlfn.QUARTILE.INC(C:C,4)</f>
         <v>61</v>
       </c>
@@ -1468,8 +1429,8 @@
     <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B19" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B20" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B18" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="B4" r:id="rId10" xr:uid="{5F417FAE-548E-43C2-A72F-EFF6AAC0C847}"/>
     <hyperlink ref="B10" r:id="rId11" xr:uid="{CEBD452E-F47C-5C4A-B5D1-2D489AFAD36E}"/>
     <hyperlink ref="B11" r:id="rId12" xr:uid="{CE1B6F0B-99DB-644D-A9E8-6D3D507E9BD1}"/>
@@ -1478,12 +1439,11 @@
     <hyperlink ref="B14" r:id="rId15" xr:uid="{7C6CE824-AE30-494D-B258-0054A0D899EA}"/>
     <hyperlink ref="B15" r:id="rId16" xr:uid="{62B1ED50-7C87-9F42-94A8-5B286787503B}"/>
     <hyperlink ref="B16" r:id="rId17" xr:uid="{1B93CA37-878D-49EE-B5EB-04AB17E9D9F3}"/>
-    <hyperlink ref="B18" r:id="rId18" xr:uid="{DE4CF150-431E-F943-B00A-9916FAE52C5A}"/>
-    <hyperlink ref="B21" r:id="rId19" xr:uid="{758FF3B7-7422-4CA8-8353-6CEC896418A2}"/>
-    <hyperlink ref="B17" r:id="rId20" xr:uid="{27EAEAD3-5A22-45D5-8B9B-93351924D911}"/>
+    <hyperlink ref="B17" r:id="rId18" xr:uid="{DE4CF150-431E-F943-B00A-9916FAE52C5A}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{758FF3B7-7422-4CA8-8353-6CEC896418A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Calibri"&amp;11&amp;K000000PERSONAL/NONWORK // EXTERNAL&amp;1#</oddHeader>
   </headerFooter>
@@ -1498,15 +1458,15 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.4609375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.4609375" customWidth="1"/>
-    <col min="3" max="3" width="11.15234375" customWidth="1"/>
-    <col min="4" max="5" width="19.4609375" customWidth="1"/>
-    <col min="6" max="6" width="16.4609375" customWidth="1"/>
+    <col min="2" max="2" width="14.46484375" customWidth="1"/>
+    <col min="3" max="3" width="11.1328125" customWidth="1"/>
+    <col min="4" max="5" width="19.46484375" customWidth="1"/>
+    <col min="6" max="6" width="16.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +1489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1552,7 +1512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1563,7 +1523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1574,7 +1534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1582,7 +1542,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1590,7 +1550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1598,7 +1558,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1606,7 +1566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1614,7 +1574,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1622,7 +1582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1633,7 +1593,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1641,7 +1601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1649,7 +1609,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1660,7 +1620,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1668,7 +1628,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1676,7 +1636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,7 +1644,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1692,7 +1652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1700,7 +1660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1708,22 +1668,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -1731,7 +1691,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -1739,7 +1699,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1747,12 +1707,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>

--- a/notes/Grad.schools.xlsx
+++ b/notes/Grad.schools.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyrasadovi/Documents/transit_credit-access/notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\transit_credit-access\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC623843-4A0C-5E46-BDD1-660B70D925E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42799198-2110-4F57-A4D9-81B992A8B08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Application Details" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="119">
   <si>
     <t>School</t>
   </si>
@@ -375,13 +375,22 @@
     <t>?</t>
   </si>
   <si>
-    <t>UVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Pepper -- cool policy evaluation work. Sarah Turner -- disparate returns to higher education, inequality. Amalia Miller -- gender labor papers. </t>
-  </si>
-  <si>
     <t>Same as PhD</t>
+  </si>
+  <si>
+    <t>Distribution of Rankings</t>
+  </si>
+  <si>
+    <t>1st quart</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>3rd quart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max </t>
   </si>
 </sst>
 </file>
@@ -462,7 +471,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -481,7 +490,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -702,26 +710,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="6.5" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,7 +764,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -773,7 +781,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>51</v>
@@ -791,7 +799,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -823,7 +831,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -855,7 +863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -890,7 +898,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>88</v>
       </c>
@@ -925,7 +933,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -957,7 +965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -992,7 +1000,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
@@ -1024,7 +1032,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1056,7 +1064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>82</v>
       </c>
@@ -1091,7 +1099,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>87</v>
       </c>
@@ -1124,7 +1132,7 @@
       </c>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1159,7 +1167,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1191,7 +1199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1226,7 +1234,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -1258,7 +1266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1293,30 +1301,27 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>113</v>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="4">
-        <v>30</v>
-      </c>
-      <c r="D18" s="3">
-        <v>45306</v>
+        <v>93</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="8">
-        <v>85</v>
+        <v>52</v>
+      </c>
+      <c r="F18" s="14">
+        <v>100</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="16" t="s">
-        <v>55</v>
+      <c r="H18" t="s">
+        <v>91</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>52</v>
@@ -1324,48 +1329,51 @@
       <c r="J18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>69</v>
+      <c r="K18" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>55</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="8">
         <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H19" t="s">
-        <v>91</v>
+      <c r="H19" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>52</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>55</v>
@@ -1373,94 +1381,77 @@
       <c r="E20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="8">
-        <v>100</v>
+      <c r="F20" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>52</v>
       </c>
       <c r="J20">
-        <v>3</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="9" t="s">
+    <row r="21" spans="1:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B21" s="10">
         <f>SUM(F:F)</f>
-        <v>1695</v>
+        <v>1610</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>114</v>
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23">
+        <f>_xlfn.QUARTILE.INC(C:C,1)</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="B24">
-        <f>_xlfn.QUARTILE.INC(C:C,1)</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <f>_xlfn.QUARTILE.INC(C:C,2)</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="B25">
-        <f>_xlfn.QUARTILE.INC(C:C,2)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <f>_xlfn.QUARTILE.INC(C:C,3)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="B26">
-        <f>_xlfn.QUARTILE.INC(C:C,3)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27">
         <f>_xlfn.QUARTILE.INC(C:C,4)</f>
         <v>61</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K29">
-    <sortCondition ref="D2:D29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K28">
+    <sortCondition ref="D2:D28"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -1470,22 +1461,21 @@
     <hyperlink ref="B13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="B3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="B15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="B4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="B8" r:id="rId10" xr:uid="{5F417FAE-548E-43C2-A72F-EFF6AAC0C847}"/>
     <hyperlink ref="B5" r:id="rId11" xr:uid="{CEBD452E-F47C-5C4A-B5D1-2D489AFAD36E}"/>
     <hyperlink ref="B11" r:id="rId12" xr:uid="{CE1B6F0B-99DB-644D-A9E8-6D3D507E9BD1}"/>
     <hyperlink ref="B6" r:id="rId13" xr:uid="{A4DEDE0E-6619-DB4E-9E11-376ABE075990}"/>
-    <hyperlink ref="B19" r:id="rId14" xr:uid="{FF01F1E2-5FB2-F04F-9617-5DDCDCBF3B40}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{FF01F1E2-5FB2-F04F-9617-5DDCDCBF3B40}"/>
     <hyperlink ref="B9" r:id="rId15" xr:uid="{7C6CE824-AE30-494D-B258-0054A0D899EA}"/>
-    <hyperlink ref="B21" r:id="rId16" xr:uid="{62B1ED50-7C87-9F42-94A8-5B286787503B}"/>
+    <hyperlink ref="B20" r:id="rId16" xr:uid="{62B1ED50-7C87-9F42-94A8-5B286787503B}"/>
     <hyperlink ref="B16" r:id="rId17" xr:uid="{1B93CA37-878D-49EE-B5EB-04AB17E9D9F3}"/>
     <hyperlink ref="B12" r:id="rId18" xr:uid="{DE4CF150-431E-F943-B00A-9916FAE52C5A}"/>
     <hyperlink ref="B7" r:id="rId19" xr:uid="{758FF3B7-7422-4CA8-8353-6CEC896418A2}"/>
-    <hyperlink ref="B18" r:id="rId20" xr:uid="{27EAEAD3-5A22-45D5-8B9B-93351924D911}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Calibri"&amp;11&amp;K000000PERSONAL/NONWORK // EXTERNAL&amp;1#</oddHeader>
   </headerFooter>
@@ -1500,15 +1490,15 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="4" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +1521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1554,7 +1544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1565,7 +1555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1576,7 +1566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1584,7 +1574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1592,7 +1582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1600,7 +1590,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1608,7 +1598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1616,7 +1606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1624,7 +1614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1635,7 +1625,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1643,7 +1633,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1651,7 +1641,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1662,7 +1652,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1670,7 +1660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1678,7 +1668,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -1686,7 +1676,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1694,7 +1684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1702,7 +1692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1710,22 +1700,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -1733,7 +1723,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -1741,7 +1731,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1749,12 +1739,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>

--- a/notes/Grad.schools.xlsx
+++ b/notes/Grad.schools.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\transit_credit-access\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42799198-2110-4F57-A4D9-81B992A8B08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E4F915-DA08-4200-8F1B-853A49E28E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30090" yWindow="2400" windowWidth="19830" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Application Details" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="129">
   <si>
     <t>School</t>
   </si>
@@ -391,6 +391,36 @@
   </si>
   <si>
     <t xml:space="preserve">max </t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>Optional (and specifically use NSF proposals as an example)</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also have a courses form </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kirabo Jackson -- education policy papers. Elisa Jacome -- immigration, healthcare, criminal justice system. Scott Ogawa -- economics of education. </t>
+  </si>
+  <si>
+    <t>Princeton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellora Derenoncourt -- really cool, inequality, northern backlash against great migration, etc. Leah Boustan -- lots, read her immigration book. Ilyana Kuziemko -- unions and inequality, gender econ, etc. Roland Benabou -- spatial urban economics. </t>
+  </si>
+  <si>
+    <t>1000 words</t>
+  </si>
+  <si>
+    <t>20-25 pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The length of the writing sample might DQ this program for me. But I could use the Gary Becker discussion in my poli sci thesis </t>
   </si>
 </sst>
 </file>
@@ -471,7 +501,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -490,6 +520,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -710,11 +741,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1369,89 +1400,169 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>71</v>
+      <c r="A20" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>55</v>
+        <v>29</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4</v>
+      </c>
+      <c r="D20" s="15">
+        <v>45275</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>55</v>
+        <v>125</v>
+      </c>
+      <c r="F20" s="8">
+        <v>75</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="4">
+        <v>8</v>
+      </c>
+      <c r="D21" s="15">
+        <v>45295</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="8">
+        <v>95</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J20">
+      <c r="J22">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="12"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B24" s="10">
         <f>SUM(F:F)</f>
-        <v>1610</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23">
-        <f>_xlfn.QUARTILE.INC(C:C,1)</f>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24">
-        <f>_xlfn.QUARTILE.INC(C:C,2)</f>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25">
-        <f>_xlfn.QUARTILE.INC(C:C,3)</f>
-        <v>21</v>
-      </c>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26">
+        <f>_xlfn.QUARTILE.INC(C:C,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27">
+        <f>_xlfn.QUARTILE.INC(C:C,2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28">
+        <f>_xlfn.QUARTILE.INC(C:C,3)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B26">
+      <c r="B29">
         <f>_xlfn.QUARTILE.INC(C:C,4)</f>
         <v>61</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K28">
-    <sortCondition ref="D2:D28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K31">
+    <sortCondition ref="D2:D31"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -1469,13 +1580,14 @@
     <hyperlink ref="B6" r:id="rId13" xr:uid="{A4DEDE0E-6619-DB4E-9E11-376ABE075990}"/>
     <hyperlink ref="B18" r:id="rId14" xr:uid="{FF01F1E2-5FB2-F04F-9617-5DDCDCBF3B40}"/>
     <hyperlink ref="B9" r:id="rId15" xr:uid="{7C6CE824-AE30-494D-B258-0054A0D899EA}"/>
-    <hyperlink ref="B20" r:id="rId16" xr:uid="{62B1ED50-7C87-9F42-94A8-5B286787503B}"/>
+    <hyperlink ref="B22" r:id="rId16" xr:uid="{62B1ED50-7C87-9F42-94A8-5B286787503B}"/>
     <hyperlink ref="B16" r:id="rId17" xr:uid="{1B93CA37-878D-49EE-B5EB-04AB17E9D9F3}"/>
     <hyperlink ref="B12" r:id="rId18" xr:uid="{DE4CF150-431E-F943-B00A-9916FAE52C5A}"/>
     <hyperlink ref="B7" r:id="rId19" xr:uid="{758FF3B7-7422-4CA8-8353-6CEC896418A2}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{16F5FAE6-3B8C-4DCA-9610-8744A32C2BEA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Calibri"&amp;11&amp;K000000PERSONAL/NONWORK // EXTERNAL&amp;1#</oddHeader>
   </headerFooter>

--- a/notes/Grad.schools.xlsx
+++ b/notes/Grad.schools.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\transit_credit-access\notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyrasadovi/Documents/transit_credit-access/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E4F915-DA08-4200-8F1B-853A49E28E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2E7F4C-5E5C-CA4B-8441-30118D50ACF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30090" yWindow="2400" windowWidth="19830" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Application Details" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="131">
   <si>
     <t>School</t>
   </si>
@@ -261,12 +261,6 @@
     <t xml:space="preserve">Paul Ernesto Carrillo -- a few housing papers. Remi Jedwab -- cool urban development papers. Anthony Yezer -- real estate finance and urban development. </t>
   </si>
   <si>
-    <t>500 words</t>
-  </si>
-  <si>
-    <t>500 word diversity statement</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -345,12 +339,6 @@
     <t xml:space="preserve">Parag Pathak -- cool paper on CPS, race and school quality, etc. Nathaniel Hendren -- social mobility. Simon Jager -- labor. </t>
   </si>
   <si>
-    <t>They require a professional resume and an "analytical/quantitative resume", which is likely to overlap.</t>
-  </si>
-  <si>
-    <t>No SoP, but 6 essays. Ugh.</t>
-  </si>
-  <si>
     <t>Max 20 pages. IDK what that means.</t>
   </si>
   <si>
@@ -375,9 +363,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>Same as PhD</t>
-  </si>
-  <si>
     <t>Distribution of Rankings</t>
   </si>
   <si>
@@ -421,6 +406,27 @@
   </si>
   <si>
     <t xml:space="preserve">The length of the writing sample might DQ this program for me. But I could use the Gary Becker discussion in my poli sci thesis </t>
+  </si>
+  <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Pepper -- cool policy evaluation work. Sarah Turner -- disparate returns to higher education, inequality. Amalia Miller -- gender labor papers. </t>
+  </si>
+  <si>
+    <t>Cornell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamein Cunningham (on leave at UT Austin) -- civil rights enforcement and racial wage gap, police brutality. Max Kapustin -- crime and urban econ. Douglas Miller -- housing fx on child mortality, EITC, head start. </t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>Min 200 words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Feigenbaum -- economic history. Martin Fiszbein -- demographics and political extremism. Adam Guren -- household finance and real estate. </t>
   </si>
 </sst>
 </file>
@@ -443,6 +449,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -450,18 +457,21 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -501,7 +511,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -521,6 +531,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -744,23 +756,23 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -768,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>45</v>
@@ -795,7 +807,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -803,7 +815,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D2" s="5">
         <v>45204</v>
@@ -811,8 +823,8 @@
       <c r="E2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>113</v>
+      <c r="F2" s="11">
+        <v>0</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>51</v>
@@ -830,85 +842,88 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="D3" s="3">
         <v>45261</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="F3" s="8">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>111</v>
+        <v>29</v>
+      </c>
+      <c r="C4" s="4">
+        <v>12</v>
       </c>
       <c r="D4" s="3">
         <v>45261</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="F4" s="8">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>55</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
+      <c r="K4" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="4">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3">
         <v>45261</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F5" s="8">
         <v>75</v>
@@ -920,53 +935,50 @@
         <v>55</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="4">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3">
         <v>45261</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F6" s="8">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>29</v>
@@ -975,230 +987,233 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>45261</v>
+        <v>45264</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="F7" s="8">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
+      <c r="K7" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="D8" s="3">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="8">
-        <v>135</v>
+        <v>52</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="5">
+        <v>45266</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="6">
+        <v>95</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9">
         <v>3</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="3">
-        <v>45265</v>
-      </c>
-      <c r="E9" s="7" t="s">
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45274</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="8">
+        <v>120</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45275</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="8">
+        <v>75</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="5">
-        <v>45266</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="6">
-        <v>200</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10">
+      <c r="J11">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="4">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3">
-        <v>45274</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="8">
-        <v>120</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>87</v>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="D12" s="3">
         <v>45275</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="F12" s="8">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J12">
         <v>3</v>
       </c>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="3">
+        <v>29</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4</v>
+      </c>
+      <c r="D13" s="15">
         <v>45275</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="F13" s="8">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="J13">
         <v>3</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1230,7 +1245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1244,13 +1259,13 @@
         <v>45292</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F15" s="8">
         <v>75</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>55</v>
@@ -1262,10 +1277,10 @@
         <v>2</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -1279,7 +1294,7 @@
         <v>45295</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F16" s="8">
         <v>90</v>
@@ -1288,7 +1303,7 @@
         <v>51</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>52</v>
@@ -1297,263 +1312,281 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="4">
-        <v>61</v>
-      </c>
-      <c r="D17" s="3">
-        <v>45306</v>
+        <v>8</v>
+      </c>
+      <c r="D17" s="15">
+        <v>45295</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="F17" s="8">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
+        <v>115</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>69</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
+      </c>
+      <c r="C18" s="4">
+        <v>61</v>
+      </c>
+      <c r="D18" s="3">
+        <v>45306</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="14">
-        <v>100</v>
+        <v>74</v>
+      </c>
+      <c r="F18" s="8">
+        <v>80</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H18" t="s">
-        <v>91</v>
+      <c r="H18" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>52</v>
       </c>
       <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3">
+        <v>45306</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="8">
+        <v>85</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19">
         <v>2</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="15" t="s">
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F20" s="14">
         <v>100</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="4">
-        <v>4</v>
-      </c>
-      <c r="D20" s="15">
-        <v>45275</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="8">
-        <v>75</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="B21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="4">
+        <v>14</v>
+      </c>
+      <c r="D21" s="15">
+        <v>45306</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="J20">
+      <c r="F21" s="8">
+        <v>105</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21">
         <v>3</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="4">
-        <v>8</v>
-      </c>
-      <c r="D21" s="15">
-        <v>45295</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="8">
+      <c r="B22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="4">
+        <v>22</v>
+      </c>
+      <c r="D22" s="15">
+        <v>45275</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="8">
         <v>95</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G22" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="H23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22">
+      <c r="J23">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="12"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="10">
         <f>SUM(F:F)</f>
-        <v>1780</v>
+        <v>1770</v>
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B26">
         <f>_xlfn.QUARTILE.INC(C:C,1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B27">
         <f>_xlfn.QUARTILE.INC(C:C,2)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B28">
         <f>_xlfn.QUARTILE.INC(C:C,3)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B29">
         <f>_xlfn.QUARTILE.INC(C:C,4)</f>
@@ -1561,33 +1594,34 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K31">
-    <sortCondition ref="D2:D31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K23">
+    <sortCondition ref="D3:D23"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="B14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B19" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B8" r:id="rId10" xr:uid="{5F417FAE-548E-43C2-A72F-EFF6AAC0C847}"/>
-    <hyperlink ref="B5" r:id="rId11" xr:uid="{CEBD452E-F47C-5C4A-B5D1-2D489AFAD36E}"/>
-    <hyperlink ref="B11" r:id="rId12" xr:uid="{CE1B6F0B-99DB-644D-A9E8-6D3D507E9BD1}"/>
-    <hyperlink ref="B6" r:id="rId13" xr:uid="{A4DEDE0E-6619-DB4E-9E11-376ABE075990}"/>
-    <hyperlink ref="B18" r:id="rId14" xr:uid="{FF01F1E2-5FB2-F04F-9617-5DDCDCBF3B40}"/>
-    <hyperlink ref="B9" r:id="rId15" xr:uid="{7C6CE824-AE30-494D-B258-0054A0D899EA}"/>
-    <hyperlink ref="B22" r:id="rId16" xr:uid="{62B1ED50-7C87-9F42-94A8-5B286787503B}"/>
-    <hyperlink ref="B16" r:id="rId17" xr:uid="{1B93CA37-878D-49EE-B5EB-04AB17E9D9F3}"/>
-    <hyperlink ref="B12" r:id="rId18" xr:uid="{DE4CF150-431E-F943-B00A-9916FAE52C5A}"/>
-    <hyperlink ref="B7" r:id="rId19" xr:uid="{758FF3B7-7422-4CA8-8353-6CEC896418A2}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{16F5FAE6-3B8C-4DCA-9610-8744A32C2BEA}"/>
+    <hyperlink ref="B18" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B7" r:id="rId8" xr:uid="{5F417FAE-548E-43C2-A72F-EFF6AAC0C847}"/>
+    <hyperlink ref="B4" r:id="rId9" xr:uid="{CEBD452E-F47C-5C4A-B5D1-2D489AFAD36E}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{CE1B6F0B-99DB-644D-A9E8-6D3D507E9BD1}"/>
+    <hyperlink ref="B5" r:id="rId11" xr:uid="{A4DEDE0E-6619-DB4E-9E11-376ABE075990}"/>
+    <hyperlink ref="B20" r:id="rId12" xr:uid="{FF01F1E2-5FB2-F04F-9617-5DDCDCBF3B40}"/>
+    <hyperlink ref="B8" r:id="rId13" xr:uid="{7C6CE824-AE30-494D-B258-0054A0D899EA}"/>
+    <hyperlink ref="B23" r:id="rId14" xr:uid="{62B1ED50-7C87-9F42-94A8-5B286787503B}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{1B93CA37-878D-49EE-B5EB-04AB17E9D9F3}"/>
+    <hyperlink ref="B11" r:id="rId16" xr:uid="{DE4CF150-431E-F943-B00A-9916FAE52C5A}"/>
+    <hyperlink ref="B6" r:id="rId17" xr:uid="{758FF3B7-7422-4CA8-8353-6CEC896418A2}"/>
+    <hyperlink ref="B17" r:id="rId18" xr:uid="{16F5FAE6-3B8C-4DCA-9610-8744A32C2BEA}"/>
+    <hyperlink ref="B19" r:id="rId19" xr:uid="{99892D0C-0151-D548-B7A6-3C28B40FD72B}"/>
+    <hyperlink ref="B22" r:id="rId20" xr:uid="{18F082EC-0CC4-474C-BF73-7150C2252576}"/>
+    <hyperlink ref="B21" r:id="rId21" xr:uid="{3FB740C0-1F81-874F-9865-53971F86B691}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Calibri"&amp;11&amp;K000000PERSONAL/NONWORK // EXTERNAL&amp;1#</oddHeader>
   </headerFooter>
@@ -1602,15 +1636,15 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1633,7 +1667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1656,7 +1690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1667,7 +1701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1678,7 +1712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1686,7 +1720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1694,7 +1728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1702,7 +1736,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1710,7 +1744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1718,7 +1752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1726,7 +1760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1737,7 +1771,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1745,7 +1779,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1753,7 +1787,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1764,7 +1798,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1772,7 +1806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1780,7 +1814,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -1788,7 +1822,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1796,7 +1830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1804,7 +1838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1812,22 +1846,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -1835,7 +1869,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -1843,7 +1877,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1851,12 +1885,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>

--- a/notes/Grad.schools.xlsx
+++ b/notes/Grad.schools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyrasadovi/Documents/transit_credit-access/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2E7F4C-5E5C-CA4B-8441-30118D50ACF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F185E11-0E11-9341-9142-56F48B7EF75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="25600" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Application Details" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="133">
   <si>
     <t>School</t>
   </si>
@@ -427,6 +427,12 @@
   </si>
   <si>
     <t xml:space="preserve">James Feigenbaum -- economic history. Martin Fiszbein -- demographics and political extremism. Adam Guren -- household finance and real estate. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew Turner -- cool urbanization/infrastructure papers, incl subway papers. Lorenzo Lagos -- inequality and wage disparity. Jesse Bruhn -- public housing, education. </t>
   </si>
 </sst>
 </file>
@@ -753,11 +759,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1421,8 +1427,8 @@
       <c r="B20" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>55</v>
+      <c r="D20" s="3">
+        <v>45306</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>52</v>
@@ -1512,90 +1518,123 @@
       </c>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="4">
+        <v>20</v>
+      </c>
+      <c r="D23" s="15">
+        <v>45292</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="8">
+        <v>75</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B24" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D24" s="15">
+        <v>45306</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="G24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J23">
+      <c r="J24">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9" t="s">
+    <row r="25" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B25" s="10">
         <f>SUM(F:F)</f>
-        <v>1770</v>
-      </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26">
-        <f>_xlfn.QUARTILE.INC(C:C,1)</f>
-        <v>6</v>
-      </c>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B27">
-        <f>_xlfn.QUARTILE.INC(C:C,2)</f>
-        <v>12</v>
+        <f>_xlfn.QUARTILE.INC(C:C,1)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28">
+        <f>_xlfn.QUARTILE.INC(C:C,2)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <f>_xlfn.QUARTILE.INC(C:C,3)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <f>_xlfn.QUARTILE.INC(C:C,4)</f>
         <v>61</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K23">
-    <sortCondition ref="D3:D23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K24">
+    <sortCondition ref="D3:D24"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -1611,7 +1650,7 @@
     <hyperlink ref="B5" r:id="rId11" xr:uid="{A4DEDE0E-6619-DB4E-9E11-376ABE075990}"/>
     <hyperlink ref="B20" r:id="rId12" xr:uid="{FF01F1E2-5FB2-F04F-9617-5DDCDCBF3B40}"/>
     <hyperlink ref="B8" r:id="rId13" xr:uid="{7C6CE824-AE30-494D-B258-0054A0D899EA}"/>
-    <hyperlink ref="B23" r:id="rId14" xr:uid="{62B1ED50-7C87-9F42-94A8-5B286787503B}"/>
+    <hyperlink ref="B24" r:id="rId14" xr:uid="{62B1ED50-7C87-9F42-94A8-5B286787503B}"/>
     <hyperlink ref="B16" r:id="rId15" xr:uid="{1B93CA37-878D-49EE-B5EB-04AB17E9D9F3}"/>
     <hyperlink ref="B11" r:id="rId16" xr:uid="{DE4CF150-431E-F943-B00A-9916FAE52C5A}"/>
     <hyperlink ref="B6" r:id="rId17" xr:uid="{758FF3B7-7422-4CA8-8353-6CEC896418A2}"/>
@@ -1619,9 +1658,10 @@
     <hyperlink ref="B19" r:id="rId19" xr:uid="{99892D0C-0151-D548-B7A6-3C28B40FD72B}"/>
     <hyperlink ref="B22" r:id="rId20" xr:uid="{18F082EC-0CC4-474C-BF73-7150C2252576}"/>
     <hyperlink ref="B21" r:id="rId21" xr:uid="{3FB740C0-1F81-874F-9865-53971F86B691}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{245EB07D-66D3-004B-9D45-1C5074223169}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Calibri"&amp;11&amp;K000000PERSONAL/NONWORK // EXTERNAL&amp;1#</oddHeader>
   </headerFooter>

--- a/notes/Grad.schools.xlsx
+++ b/notes/Grad.schools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyrasadovi/Documents/transit_credit-access/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F185E11-0E11-9341-9142-56F48B7EF75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA137F92-1ACD-AA40-BCA2-3B9CD927E85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="25600" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Application Details" sheetId="1" r:id="rId1"/>
@@ -762,8 +762,8 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/notes/Grad.schools.xlsx
+++ b/notes/Grad.schools.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyrasadovi/Documents/transit_credit-access/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA137F92-1ACD-AA40-BCA2-3B9CD927E85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A57807-05D9-5346-A31D-6B199195B219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="134">
   <si>
     <t>School</t>
   </si>
@@ -345,9 +345,6 @@
     <t>Will Dobbie -- housing discrimination. Luis Armona -- home price expectations. Desmond Ang -- violence on inner-city students.</t>
   </si>
   <si>
-    <t>Joseph Altonji -- cool research on the role of families and schools in inequality. Gerald Jaynes -- research on Black participation in the labor market and effects of migration on the Black working class (possibly emeritus?). Ed Vytlacil -- evaluating disparate returns to schooling, speaks to disparate impact of treatment effects (like my NSF proposal).</t>
-  </si>
-  <si>
     <t>500-1000 words</t>
   </si>
   <si>
@@ -433,6 +430,12 @@
   </si>
   <si>
     <t xml:space="preserve">Matthew Turner -- cool urbanization/infrastructure papers, incl subway papers. Lorenzo Lagos -- inequality and wage disparity. Jesse Bruhn -- public housing, education. </t>
+  </si>
+  <si>
+    <t>Duke has a required 1-page diversity statement</t>
+  </si>
+  <si>
+    <t>Joseph Altonji -- cool research on the role of families and schools in inequality. Gerald Jaynes -- research on Black participation in the labor market and effects of migration on the Black work ytlacil -- evaluating disparate returns to schooling, speaks to disparate impact of treatment effects (like my NSF proposal).</t>
   </si>
 </sst>
 </file>
@@ -763,7 +766,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -786,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>45</v>
@@ -821,7 +824,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="5">
         <v>45204</v>
@@ -856,7 +859,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="3">
         <v>45261</v>
@@ -963,8 +966,8 @@
       <c r="D6" s="3">
         <v>45261</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>103</v>
+      <c r="E6" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="F6" s="8">
         <v>105</v>
@@ -973,10 +976,10 @@
         <v>51</v>
       </c>
       <c r="H6" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -1057,7 +1060,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" s="5">
         <v>45266</v>
@@ -1157,7 +1160,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="3">
         <v>45275</v>
@@ -1186,7 +1189,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>29</v>
@@ -1198,7 +1201,7 @@
         <v>45275</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F13" s="8">
         <v>75</v>
@@ -1207,16 +1210,16 @@
         <v>51</v>
       </c>
       <c r="H13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="J13">
         <v>3</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1317,10 +1320,13 @@
       <c r="J16">
         <v>3</v>
       </c>
+      <c r="K16" s="17" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>29</v>
@@ -1332,7 +1338,7 @@
         <v>45295</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F17" s="8">
         <v>95</v>
@@ -1341,16 +1347,16 @@
         <v>51</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="K17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1390,7 +1396,7 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>29</v>
@@ -1402,7 +1408,7 @@
         <v>45306</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F19" s="8">
         <v>85</v>
@@ -1454,7 +1460,7 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>29</v>
@@ -1466,7 +1472,7 @@
         <v>45306</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F21" s="8">
         <v>105</v>
@@ -1487,7 +1493,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>29</v>
@@ -1499,7 +1505,7 @@
         <v>45275</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F22" s="8">
         <v>95</v>
@@ -1508,7 +1514,7 @@
         <v>58</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I22" s="17" t="s">
         <v>57</v>
@@ -1520,7 +1526,7 @@
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>29</v>
@@ -1532,7 +1538,7 @@
         <v>45292</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F23" s="8">
         <v>75</v>
@@ -1592,13 +1598,13 @@
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B27">
         <f>_xlfn.QUARTILE.INC(C:C,1)</f>
@@ -1607,7 +1613,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B28">
         <f>_xlfn.QUARTILE.INC(C:C,2)</f>
@@ -1616,7 +1622,7 @@
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B29">
         <f>_xlfn.QUARTILE.INC(C:C,3)</f>
@@ -1625,7 +1631,7 @@
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B30">
         <f>_xlfn.QUARTILE.INC(C:C,4)</f>

--- a/notes/Grad.schools.xlsx
+++ b/notes/Grad.schools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyrasadovi/Documents/transit_credit-access/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A57807-05D9-5346-A31D-6B199195B219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B7E533-418E-8848-8A5E-807F590EB36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -766,7 +766,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/notes/Grad.schools.xlsx
+++ b/notes/Grad.schools.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyrasadovi/Documents/transit_credit-access/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B7E533-418E-8848-8A5E-807F590EB36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84AD430-26DE-D94E-AD8F-A885CC7F633D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19200" yWindow="500" windowWidth="19200" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Application Details" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
     <t>Duke has a required 1-page diversity statement</t>
   </si>
   <si>
-    <t>Joseph Altonji -- cool research on the role of families and schools in inequality. Gerald Jaynes -- research on Black participation in the labor market and effects of migration on the Black work ytlacil -- evaluating disparate returns to schooling, speaks to disparate impact of treatment effects (like my NSF proposal).</t>
+    <t>Joseph Altonji -- cool research on the role of families and schools in inequality. Gerald Jaynes -- research on Black participation in the labor market and effects of migration on the Black work. Edward Vytlacil -- evaluating disparate returns to schooling, speaks to disparate impact of treatment effects (like my NSF proposal).</t>
   </si>
 </sst>
 </file>
@@ -766,7 +766,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/notes/Grad.schools.xlsx
+++ b/notes/Grad.schools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyrasadovi/Documents/transit_credit-access/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84AD430-26DE-D94E-AD8F-A885CC7F633D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D313D7-9803-9144-84DB-A3AD3F700DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19200" yWindow="500" windowWidth="19200" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Application Details" sheetId="1" r:id="rId1"/>
@@ -766,7 +766,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/notes/Grad.schools.xlsx
+++ b/notes/Grad.schools.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyrasadovi/Documents/transit_credit-access/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D313D7-9803-9144-84DB-A3AD3F700DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC16905B-40B4-F54E-B7C8-945120C7C863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="133">
   <si>
     <t>School</t>
   </si>
@@ -214,9 +214,6 @@
   </si>
   <si>
     <t>SoP Notes</t>
-  </si>
-  <si>
-    <t>300 word motivation statement</t>
   </si>
   <si>
     <t>Additional optional essays</t>
@@ -498,12 +495,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -520,28 +523,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="6" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -762,11 +771,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -789,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>45</v>
@@ -816,799 +825,773 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="14">
+        <v>45261</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="16">
+        <v>100</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="13">
+        <v>12</v>
+      </c>
+      <c r="D3" s="14">
+        <v>45261</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="16">
+        <v>75</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="17">
+        <v>3</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="13">
+        <v>22</v>
+      </c>
+      <c r="D4" s="14">
+        <v>45261</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="16">
+        <v>75</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="17">
+        <v>3</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="13">
+        <v>4</v>
+      </c>
+      <c r="D5" s="14">
+        <v>45261</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="16">
+        <v>105</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="13">
+        <v>4</v>
+      </c>
+      <c r="D6" s="14">
+        <v>45264</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="16">
+        <v>135</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="17">
+        <v>3</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45265</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="19">
+        <v>45266</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="20">
+        <v>95</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="13">
+        <v>9</v>
+      </c>
+      <c r="D9" s="14">
+        <v>45274</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="16">
+        <v>120</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14">
+        <v>45275</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="16">
+        <v>75</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="17">
+        <v>3</v>
+      </c>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="5">
-        <v>45204</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D11" s="14">
+        <v>45275</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="16">
+        <v>80</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="17">
+        <v>3</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="13">
+        <v>4</v>
+      </c>
+      <c r="D12" s="21">
+        <v>45275</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="16">
+        <v>75</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" s="17">
+        <v>3</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="13">
+        <v>11</v>
+      </c>
+      <c r="D13" s="14">
+        <v>45278</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="16">
+        <v>110</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="13">
+        <v>22</v>
+      </c>
+      <c r="D14" s="14">
+        <v>45292</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="16">
+        <v>75</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="11">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="J14" s="17">
+        <v>2</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="13">
+        <v>18</v>
+      </c>
+      <c r="D15" s="14">
+        <v>45295</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="16">
+        <v>90</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="H15" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J2">
+      <c r="J15" s="17">
         <v>3</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K15" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="13">
+        <v>8</v>
+      </c>
+      <c r="D16" s="21">
+        <v>45295</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="16">
+        <v>95</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="13">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="3">
-        <v>45261</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="8">
-        <v>100</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="D17" s="14">
+        <v>45306</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="16">
+        <v>80</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="17">
+        <v>3</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="11">
+        <v>30</v>
+      </c>
+      <c r="D18" s="14">
+        <v>45306</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="16">
+        <v>85</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="4">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3">
-        <v>45261</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="8">
-        <v>75</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="I18" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="4">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3">
-        <v>45261</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="8">
-        <v>75</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="4">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3">
-        <v>45261</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="8">
-        <v>105</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>45264</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="8">
-        <v>135</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="3">
-        <v>45265</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8">
+      <c r="J18" s="17">
         <v>2</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="5">
-        <v>45266</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="6">
-        <v>95</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3">
-        <v>45274</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="8">
-        <v>120</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>45275</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="8">
-        <v>75</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="3">
-        <v>45275</v>
-      </c>
-      <c r="E12" s="7" t="s">
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="8">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="4">
-        <v>4</v>
-      </c>
-      <c r="D13" s="15">
-        <v>45275</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="8">
-        <v>75</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="4">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3">
-        <v>45278</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="8">
-        <v>110</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="4">
-        <v>22</v>
-      </c>
-      <c r="D15" s="3">
-        <v>45292</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="8">
-        <v>75</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="4">
-        <v>18</v>
-      </c>
-      <c r="D16" s="3">
-        <v>45295</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="8">
+      <c r="B19" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="4">
-        <v>8</v>
-      </c>
-      <c r="D17" s="15">
-        <v>45295</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="8">
-        <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="4">
-        <v>61</v>
-      </c>
-      <c r="D18" s="3">
-        <v>45306</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="8">
-        <v>80</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18">
-        <v>3</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="1">
-        <v>30</v>
       </c>
       <c r="D19" s="3">
         <v>45306</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="8">
-        <v>85</v>
-      </c>
-      <c r="G19" s="17" t="s">
+      <c r="E19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="9">
+        <v>100</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="17" t="s">
+      <c r="H19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>52</v>
       </c>
       <c r="J19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>69</v>
+      <c r="K19" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="3">
+        <v>29</v>
+      </c>
+      <c r="C20" s="13">
+        <v>14</v>
+      </c>
+      <c r="D20" s="21">
         <v>45306</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="16">
+        <v>105</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="17">
+        <v>3</v>
+      </c>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="13">
+        <v>22</v>
+      </c>
+      <c r="D21" s="21">
+        <v>45275</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="16">
+        <v>95</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="17">
+        <v>3</v>
+      </c>
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="13">
+        <v>20</v>
+      </c>
+      <c r="D22" s="21">
+        <v>45292</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="16">
+        <v>75</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="17">
+        <v>3</v>
+      </c>
+      <c r="K22" s="15"/>
+    </row>
+    <row r="23" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="10">
+        <v>45306</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="14">
-        <v>100</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="F23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H20" t="s">
-        <v>89</v>
-      </c>
-      <c r="I20" s="7" t="s">
+      <c r="H23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J20">
+      <c r="J23">
         <v>2</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="4">
-        <v>14</v>
-      </c>
-      <c r="D21" s="15">
-        <v>45306</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21" s="8">
-        <v>105</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="4">
-        <v>22</v>
-      </c>
-      <c r="D22" s="15">
-        <v>45275</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22" s="8">
-        <v>95</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22">
-        <v>3</v>
-      </c>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="4">
-        <v>20</v>
-      </c>
-      <c r="D23" s="15">
-        <v>45292</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F23" s="8">
-        <v>75</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23">
-        <v>3</v>
-      </c>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="15">
-        <v>45306</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="10">
+    </row>
+    <row r="24" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="7">
         <f>SUM(F:F)</f>
         <v>1845</v>
       </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>107</v>
+      </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+      <c r="A26" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="B26">
+        <f>_xlfn.QUARTILE.INC(C:C,1)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B27">
-        <f>_xlfn.QUARTILE.INC(C:C,1)</f>
-        <v>7</v>
+        <f>_xlfn.QUARTILE.INC(C:C,2)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1616,8 +1599,8 @@
         <v>110</v>
       </c>
       <c r="B28">
-        <f>_xlfn.QUARTILE.INC(C:C,2)</f>
-        <v>13</v>
+        <f>_xlfn.QUARTILE.INC(C:C,3)</f>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1625,49 +1608,39 @@
         <v>111</v>
       </c>
       <c r="B29">
-        <f>_xlfn.QUARTILE.INC(C:C,3)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30">
         <f>_xlfn.QUARTILE.INC(C:C,4)</f>
         <v>61</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K24">
-    <sortCondition ref="D3:D24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K23">
+    <sortCondition ref="D2:D23"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B18" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B7" r:id="rId8" xr:uid="{5F417FAE-548E-43C2-A72F-EFF6AAC0C847}"/>
-    <hyperlink ref="B4" r:id="rId9" xr:uid="{CEBD452E-F47C-5C4A-B5D1-2D489AFAD36E}"/>
-    <hyperlink ref="B10" r:id="rId10" xr:uid="{CE1B6F0B-99DB-644D-A9E8-6D3D507E9BD1}"/>
-    <hyperlink ref="B5" r:id="rId11" xr:uid="{A4DEDE0E-6619-DB4E-9E11-376ABE075990}"/>
-    <hyperlink ref="B20" r:id="rId12" xr:uid="{FF01F1E2-5FB2-F04F-9617-5DDCDCBF3B40}"/>
-    <hyperlink ref="B8" r:id="rId13" xr:uid="{7C6CE824-AE30-494D-B258-0054A0D899EA}"/>
-    <hyperlink ref="B24" r:id="rId14" xr:uid="{62B1ED50-7C87-9F42-94A8-5B286787503B}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{1B93CA37-878D-49EE-B5EB-04AB17E9D9F3}"/>
-    <hyperlink ref="B11" r:id="rId16" xr:uid="{DE4CF150-431E-F943-B00A-9916FAE52C5A}"/>
-    <hyperlink ref="B6" r:id="rId17" xr:uid="{758FF3B7-7422-4CA8-8353-6CEC896418A2}"/>
-    <hyperlink ref="B17" r:id="rId18" xr:uid="{16F5FAE6-3B8C-4DCA-9610-8744A32C2BEA}"/>
-    <hyperlink ref="B19" r:id="rId19" xr:uid="{99892D0C-0151-D548-B7A6-3C28B40FD72B}"/>
-    <hyperlink ref="B22" r:id="rId20" xr:uid="{18F082EC-0CC4-474C-BF73-7150C2252576}"/>
-    <hyperlink ref="B21" r:id="rId21" xr:uid="{3FB740C0-1F81-874F-9865-53971F86B691}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{245EB07D-66D3-004B-9D45-1C5074223169}"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{5F417FAE-548E-43C2-A72F-EFF6AAC0C847}"/>
+    <hyperlink ref="B3" r:id="rId8" xr:uid="{CEBD452E-F47C-5C4A-B5D1-2D489AFAD36E}"/>
+    <hyperlink ref="B9" r:id="rId9" xr:uid="{CE1B6F0B-99DB-644D-A9E8-6D3D507E9BD1}"/>
+    <hyperlink ref="B4" r:id="rId10" xr:uid="{A4DEDE0E-6619-DB4E-9E11-376ABE075990}"/>
+    <hyperlink ref="B19" r:id="rId11" xr:uid="{FF01F1E2-5FB2-F04F-9617-5DDCDCBF3B40}"/>
+    <hyperlink ref="B7" r:id="rId12" xr:uid="{7C6CE824-AE30-494D-B258-0054A0D899EA}"/>
+    <hyperlink ref="B23" r:id="rId13" xr:uid="{62B1ED50-7C87-9F42-94A8-5B286787503B}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{1B93CA37-878D-49EE-B5EB-04AB17E9D9F3}"/>
+    <hyperlink ref="B10" r:id="rId15" xr:uid="{DE4CF150-431E-F943-B00A-9916FAE52C5A}"/>
+    <hyperlink ref="B5" r:id="rId16" xr:uid="{758FF3B7-7422-4CA8-8353-6CEC896418A2}"/>
+    <hyperlink ref="B16" r:id="rId17" xr:uid="{16F5FAE6-3B8C-4DCA-9610-8744A32C2BEA}"/>
+    <hyperlink ref="B18" r:id="rId18" xr:uid="{99892D0C-0151-D548-B7A6-3C28B40FD72B}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{18F082EC-0CC4-474C-BF73-7150C2252576}"/>
+    <hyperlink ref="B20" r:id="rId20" xr:uid="{3FB740C0-1F81-874F-9865-53971F86B691}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{245EB07D-66D3-004B-9D45-1C5074223169}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Calibri"&amp;11&amp;K000000PERSONAL/NONWORK // EXTERNAL&amp;1#</oddHeader>
   </headerFooter>

--- a/notes/Grad.schools.xlsx
+++ b/notes/Grad.schools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyrasadovi/Documents/transit_credit-access/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC16905B-40B4-F54E-B7C8-945120C7C863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1AD47E-D742-1448-A45D-03A93DB35AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Application Details" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="131">
   <si>
     <t>School</t>
   </si>
@@ -357,21 +357,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>Distribution of Rankings</t>
-  </si>
-  <si>
-    <t>1st quart</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
-    <t>3rd quart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max </t>
-  </si>
-  <si>
     <t>Northwestern</t>
   </si>
   <si>
@@ -433,6 +418,15 @@
   </si>
   <si>
     <t>Joseph Altonji -- cool research on the role of families and schools in inequality. Gerald Jaynes -- research on Black participation in the labor market and effects of migration on the Black work. Edward Vytlacil -- evaluating disparate returns to schooling, speaks to disparate impact of treatment effects (like my NSF proposal).</t>
+  </si>
+  <si>
+    <t>Done but not submitted</t>
+  </si>
+  <si>
+    <t>Submitted</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -495,7 +489,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,6 +499,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,7 +529,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -545,12 +551,21 @@
     <xf numFmtId="6" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -771,11 +786,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -870,7 +885,7 @@
       <c r="D3" s="14">
         <v>45261</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="18" t="s">
         <v>78</v>
       </c>
       <c r="F3" s="16">
@@ -941,7 +956,7 @@
         <v>45261</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F5" s="16">
         <v>105</v>
@@ -1026,35 +1041,35 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:11" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="32">
         <v>45266</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="33">
         <v>95</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="24">
         <v>3</v>
       </c>
     </row>
@@ -1086,7 +1101,7 @@
       <c r="I9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="20" t="s">
         <v>81</v>
       </c>
       <c r="K9" s="15" t="s">
@@ -1126,44 +1141,44 @@
       </c>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:11" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="29">
         <v>45275</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="31">
         <v>80</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="24">
         <v>3</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>29</v>
@@ -1171,11 +1186,11 @@
       <c r="C12" s="13">
         <v>4</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="19">
         <v>45275</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F12" s="16">
         <v>75</v>
@@ -1184,16 +1199,16 @@
         <v>51</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J12" s="17">
         <v>3</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1263,44 +1278,44 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:11" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="B15" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="28">
         <v>18</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="29">
         <v>45295</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="31">
         <v>90</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="24">
         <v>3</v>
       </c>
-      <c r="K15" s="18" t="s">
-        <v>131</v>
+      <c r="K15" s="23" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>29</v>
@@ -1308,11 +1323,11 @@
       <c r="C16" s="13">
         <v>8</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="19">
         <v>45295</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F16" s="16">
         <v>95</v>
@@ -1324,53 +1339,53 @@
         <v>102</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>114</v>
+        <v>108</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>109</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="13">
+      <c r="B17" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="28">
         <v>61</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="29">
         <v>45306</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="31">
         <v>80</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="24">
         <v>3</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="30" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>29</v>
@@ -1382,7 +1397,7 @@
         <v>45306</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F18" s="16">
         <v>85</v>
@@ -1390,7 +1405,7 @@
       <c r="G18" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="22" t="s">
         <v>55</v>
       </c>
       <c r="I18" s="18" t="s">
@@ -1434,7 +1449,7 @@
     </row>
     <row r="20" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>29</v>
@@ -1442,11 +1457,11 @@
       <c r="C20" s="13">
         <v>14</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="19">
         <v>45306</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F20" s="16">
         <v>105</v>
@@ -1467,7 +1482,7 @@
     </row>
     <row r="21" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>29</v>
@@ -1475,11 +1490,11 @@
       <c r="C21" s="13">
         <v>22</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="19">
         <v>45275</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F21" s="16">
         <v>95</v>
@@ -1488,7 +1503,7 @@
         <v>58</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>57</v>
@@ -1500,7 +1515,7 @@
     </row>
     <row r="22" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>29</v>
@@ -1508,11 +1523,11 @@
       <c r="C22" s="13">
         <v>20</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="19">
         <v>45292</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F22" s="16">
         <v>75</v>
@@ -1571,45 +1586,22 @@
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>107</v>
-      </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26">
-        <f>_xlfn.QUARTILE.INC(C:C,1)</f>
-        <v>7</v>
+      <c r="A26" s="13" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27">
-        <f>_xlfn.QUARTILE.INC(C:C,2)</f>
-        <v>13</v>
-      </c>
+      <c r="A27" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="24"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28">
-        <f>_xlfn.QUARTILE.INC(C:C,3)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29">
-        <f>_xlfn.QUARTILE.INC(C:C,4)</f>
-        <v>61</v>
+      <c r="A28" s="25" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/notes/Grad.schools.xlsx
+++ b/notes/Grad.schools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyrasadovi/Documents/transit_credit-access/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1AD47E-D742-1448-A45D-03A93DB35AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61773B0A-3B92-624A-9F1A-EB47D4F2094F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1600" yWindow="500" windowWidth="25600" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Application Details" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -552,20 +552,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -789,8 +790,8 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -840,172 +841,174 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:11" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="25">
         <v>45261</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="27">
         <v>100</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="28">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="K2" s="26"/>
+    </row>
+    <row r="3" spans="1:11" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="B3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="23">
         <v>12</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="25">
         <v>45261</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="27">
         <v>75</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="28">
         <v>3</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:11" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="B4" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="23">
         <v>22</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="25">
         <v>45261</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="27">
         <v>75</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="28">
         <v>3</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="26" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:11" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="B5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="23">
         <v>4</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="25">
         <v>45261</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="27">
         <v>105</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="28">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="K5" s="26"/>
+    </row>
+    <row r="6" spans="1:11" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="B6" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="23">
         <v>4</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="25">
         <v>45264</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="27">
         <v>135</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="28">
         <v>3</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="26" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1041,173 +1044,173 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:11" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <v>45266</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="32">
         <v>95</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="28">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:11" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="B9" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="23">
         <v>9</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="25">
         <v>45274</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="27">
         <v>120</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:11" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="B10" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="23">
         <v>1</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="25">
         <v>45275</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="27">
         <v>75</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="28">
         <v>3</v>
       </c>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="26" t="s">
+      <c r="K10" s="26"/>
+    </row>
+    <row r="11" spans="1:11" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="25">
         <v>45275</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="27">
         <v>80</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="28">
         <v>3</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:11" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="B12" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="23">
         <v>4</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="25">
         <v>45275</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="27">
         <v>75</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="28">
         <v>3</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="26" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1243,175 +1246,175 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:11" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="13">
+      <c r="B14" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="23">
         <v>22</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="25">
         <v>45292</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="27">
         <v>75</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="28">
         <v>2</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="26" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:11" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="28">
+      <c r="B15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="23">
         <v>18</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="25">
         <v>45295</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="27">
         <v>90</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="28">
         <v>3</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="K15" s="22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:11" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="13">
+      <c r="B16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="23">
         <v>8</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="25">
         <v>45295</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="27">
         <v>95</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="26" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="26" t="s">
+    <row r="17" spans="1:11" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="28">
+      <c r="B17" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="23">
         <v>61</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="25">
         <v>45306</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="27">
         <v>80</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="28">
         <v>3</v>
       </c>
-      <c r="K17" s="30" t="s">
+      <c r="K17" s="26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:11" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="B18" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="29">
         <v>30</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="25">
         <v>45306</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="27">
         <v>85</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="28">
         <v>2</v>
       </c>
     </row>
@@ -1447,38 +1450,38 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:11" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="13">
+      <c r="B20" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="23">
         <v>14</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="30">
         <v>45306</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="27">
         <v>105</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="28">
         <v>3</v>
       </c>
-      <c r="K20" s="15"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
@@ -1513,38 +1516,38 @@
       </c>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:11" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="13">
+      <c r="B22" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="23">
         <v>20</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="30">
         <v>45292</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="27">
         <v>75</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="28">
         <v>3</v>
       </c>
-      <c r="K22" s="15"/>
+      <c r="K22" s="26"/>
     </row>
     <row r="23" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
@@ -1594,13 +1597,13 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="24"/>
+      <c r="B27" s="21"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="22" t="s">
         <v>129</v>
       </c>
     </row>
